--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC48204-CFBC-7D49-B46F-7C31710B0F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB14228-A69E-8B43-A2A0-D94994C93CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA redesign" sheetId="1" r:id="rId1"/>
     <sheet name="Comms perm_Notification prefs" sheetId="3" r:id="rId2"/>
     <sheet name="Preferred med facility" sheetId="5" r:id="rId3"/>
     <sheet name="Direct deposit for edu" sheetId="2" r:id="rId4"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
   <si>
     <t>PM</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>Preferred medical facility</t>
+  </si>
+  <si>
+    <t>Design discovery</t>
   </si>
   <si>
     <t>QA</t>
@@ -1680,6 +1684,27 @@
       </rPr>
       <t>: Finish design; Attend design intent collab</t>
     </r>
+  </si>
+  <si>
+    <t>Design Intent</t>
+  </si>
+  <si>
+    <t>Information Architecture (IA) Request</t>
+  </si>
+  <si>
+    <t>Final design updates after review with VAOS/Design team/Auth exp team</t>
+  </si>
+  <si>
+    <t>Techinical discovery</t>
+  </si>
+  <si>
+    <t>Technical discovery</t>
+  </si>
+  <si>
+    <t>Technical discovery, if needed</t>
+  </si>
+  <si>
+    <t>Project tasks</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2156,166 +2181,166 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2333,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,49 +2373,49 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2410,7 +2435,7 @@
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2421,203 +2446,206 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -2642,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2663,43 +2691,43 @@
     </row>
     <row r="2" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2719,7 +2747,7 @@
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -2730,203 +2758,206 @@
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2949,7 +2980,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2960,58 +2991,58 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3037,4 +3068,272 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{F2B89EAF-D541-E148-90D1-C1C75F73EC53}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{2C22EEE7-66A8-9945-8725-37EEC95D1B11}"/>
+    <hyperlink ref="E7" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{2E00E025-B030-654E-A800-29A7F71F06C8}"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{88E9C8B3-C02E-F34F-ABD3-503DB41EFC4D}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{8676222C-A2EE-7B43-8668-A43D366B292A}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{98584F88-3025-2E4B-95EF-20C3E20F260A}"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{FD762E51-9ED9-F34A-8EEC-AFDC36A40E84}"/>
+    <hyperlink ref="E13" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{F2D7A14C-27C4-2442-A25C-36687E9C9043}"/>
+    <hyperlink ref="E3" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{64E6A676-9DCD-D740-A4F2-AEEBA5711462}"/>
+    <hyperlink ref="E4" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{C1FCF9F4-88A3-6E46-9F55-4572610F5F72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB14228-A69E-8B43-A2A0-D94994C93CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A06145-26D2-A941-9C5B-418E3FE3DEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25580" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA redesign" sheetId="1" r:id="rId1"/>
-    <sheet name="Comms perm_Notification prefs" sheetId="3" r:id="rId2"/>
+    <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId2"/>
     <sheet name="Preferred med facility" sheetId="5" r:id="rId3"/>
     <sheet name="Direct deposit for edu" sheetId="2" r:id="rId4"/>
     <sheet name="Task list for projects" sheetId="7" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="120">
   <si>
     <t>PM</t>
   </si>
@@ -1413,18 +1413,175 @@
     <t>VSP</t>
   </si>
   <si>
-    <t>Tasks that still need to happen (not already in above plan)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>Plan and hold all required VSP reviews</t>
+  </si>
+  <si>
+    <t>Research plan</t>
+  </si>
+  <si>
+    <t>Research convo guide</t>
+  </si>
+  <si>
+    <t>Conduct &amp; summarize research</t>
+  </si>
+  <si>
+    <t>Work with content to get finalized</t>
+  </si>
+  <si>
+    <t>Research Plan Review</t>
+  </si>
+  <si>
+    <t>Analytics Request</t>
+  </si>
+  <si>
+    <t>Midpoint Review</t>
+  </si>
+  <si>
+    <t>Contact Center Review</t>
+  </si>
+  <si>
+    <t>Staging Review</t>
+  </si>
+  <si>
+    <t>Privacy and Security Review</t>
+  </si>
+  <si>
+    <t>Full Accessibility and 508 Office Audit</t>
+  </si>
+  <si>
+    <t>Post-launch Check-in</t>
+  </si>
+  <si>
+    <t>QA fixes</t>
+  </si>
+  <si>
+    <t>Accessibility fixes</t>
+  </si>
+  <si>
+    <t>Attend any required reviews</t>
+  </si>
+  <si>
+    <t>Accessibility tests for staging review</t>
+  </si>
+  <si>
+    <t>Flip on switch for phased launches</t>
+  </si>
+  <si>
+    <t>Attend UAT</t>
+  </si>
+  <si>
+    <t>Technical docs for privacy and security review</t>
+  </si>
+  <si>
+    <t>Staging review fixes</t>
+  </si>
+  <si>
+    <t>Design documentation for frontend</t>
+  </si>
+  <si>
+    <t>Put together list of staging users for QA in tandem with design</t>
+  </si>
+  <si>
+    <t>Put together list of staging users for QA in tandem with PM</t>
+  </si>
+  <si>
+    <t>Call center guide</t>
+  </si>
+  <si>
+    <t>Assist with call center guide</t>
+  </si>
+  <si>
+    <t>Work with analytics to get dashboards created</t>
+  </si>
+  <si>
+    <t>General project oversight and expertise throughout the project</t>
+  </si>
+  <si>
+    <t>Attend all meetings that require the PM</t>
+  </si>
+  <si>
+    <t>Work with team on ticket creation</t>
+  </si>
+  <si>
+    <t>Assist with design documentation for frontend</t>
+  </si>
+  <si>
+    <t>UAT research plan</t>
+  </si>
+  <si>
+    <t>UAT convo guide</t>
+  </si>
+  <si>
+    <t>Conduct UAT &amp; summarize findings</t>
+  </si>
+  <si>
+    <t>UAT fixes</t>
+  </si>
+  <si>
+    <t>Submit for research recruiting</t>
+  </si>
+  <si>
+    <t>Submit for UAT recruiting</t>
+  </si>
+  <si>
+    <t>Attend all required VSP reviews</t>
+  </si>
+  <si>
+    <t>Attend all go/no-go meetings</t>
+  </si>
+  <si>
+    <t>QA go/no-go meeting</t>
+  </si>
+  <si>
+    <t>UAT go/no-go meeting</t>
+  </si>
+  <si>
+    <t>Launch go/no-go meeting</t>
+  </si>
+  <si>
+    <t>Design Intent</t>
+  </si>
+  <si>
+    <t>Information Architecture (IA) Request</t>
+  </si>
+  <si>
+    <t>Techinical discovery</t>
+  </si>
+  <si>
+    <t>Technical discovery</t>
+  </si>
+  <si>
+    <t>Additional notes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Things to consider for this project/planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+- After meeting with Terry and coming up with internal plan, we should regroup with FE to discuss.
+- Should we do InVision testing? This seems pointless if we don't have real data. We may want to start frontend build and wait until we have real content in live code to do usability testing (and then QA and the rest of the VSP checks).
+- How are we going to handle staging users? — We'll need to know exactly what notifications need to go out so we can find users that will see those.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>PM</t>
     </r>
     <r>
@@ -1435,7 +1592,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:  IA review with VSP; Internal long-term planning
+      <t xml:space="preserve">: Schedule and hold design intent collab; Meet with VAOS to better understand timeline so we can scope/plan; Internal long term planning
 </t>
     </r>
     <r>
@@ -1457,11 +1614,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: IA review</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>: Finish design; Attend design intent collab</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PM</t>
     </r>
     <r>
@@ -1472,6 +1637,113 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">:  IA review with VSP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Content?; IA review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kickoff recruiting/start research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold Midpint review
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kickoff recruiting; start research</t>
+    </r>
+  </si>
+  <si>
+    <t>General project tasks</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We can't plan past this point because we don't know when VA Profile will have final content/data. We need this in order to finish the research convo guide, to conduct usability testing, and to move on to QA and the rest of the pre-launch checklist.</t>
+  </si>
+  <si>
+    <r>
+      <t>Design/Backend integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">: Schedule and hold design intent collab; Meet with Terry to better understand timeline so we can scope/plan
 </t>
     </r>
@@ -1494,7 +1766,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Finish design; Attend design intent collab</t>
+      <t>: Continue design; Attend design intent collab</t>
     </r>
     <r>
       <rPr>
@@ -1520,136 +1792,421 @@
     </r>
   </si>
   <si>
-    <t>Plan and hold all required VSP reviews</t>
-  </si>
-  <si>
-    <t>Research plan</t>
-  </si>
-  <si>
-    <t>Research convo guide</t>
-  </si>
-  <si>
-    <t>Conduct &amp; summarize research</t>
-  </si>
-  <si>
-    <t>Work with content to get finalized</t>
-  </si>
-  <si>
-    <t>Final design updates after review with Terry/Design team/Auth exp team</t>
-  </si>
-  <si>
-    <t>Research Plan Review</t>
-  </si>
-  <si>
-    <t>Analytics Request</t>
-  </si>
-  <si>
-    <t>Midpoint Review</t>
-  </si>
-  <si>
-    <t>Contact Center Review</t>
-  </si>
-  <si>
-    <t>Staging Review</t>
-  </si>
-  <si>
-    <t>Privacy and Security Review</t>
-  </si>
-  <si>
-    <t>Full Accessibility and 508 Office Audit</t>
-  </si>
-  <si>
-    <t>Post-launch Check-in</t>
-  </si>
-  <si>
-    <t>QA fixes</t>
-  </si>
-  <si>
-    <t>Accessibility fixes</t>
-  </si>
-  <si>
-    <t>Attend any required reviews</t>
-  </si>
-  <si>
-    <t>Accessibility tests for staging review</t>
-  </si>
-  <si>
-    <t>Flip on switch for phased launches</t>
-  </si>
-  <si>
-    <t>Attend UAT</t>
-  </si>
-  <si>
-    <t>Technical docs for privacy and security review</t>
-  </si>
-  <si>
-    <t>Staging review fixes</t>
-  </si>
-  <si>
-    <t>Design documentation for frontend</t>
-  </si>
-  <si>
-    <t>Put together list of staging users for QA in tandem with design</t>
-  </si>
-  <si>
-    <t>Put together list of staging users for QA in tandem with PM</t>
-  </si>
-  <si>
-    <t>Call center guide</t>
-  </si>
-  <si>
-    <t>Assist with call center guide</t>
-  </si>
-  <si>
-    <t>Work with analytics to get dashboards created</t>
-  </si>
-  <si>
-    <t>General project oversight and expertise throughout the project</t>
-  </si>
-  <si>
-    <t>Attend all meetings that require the PM</t>
-  </si>
-  <si>
-    <t>Work with team on ticket creation</t>
-  </si>
-  <si>
-    <t>Assist with design documentation for frontend</t>
-  </si>
-  <si>
-    <t>UAT research plan</t>
-  </si>
-  <si>
-    <t>UAT convo guide</t>
-  </si>
-  <si>
-    <t>Conduct UAT &amp; summarize findings</t>
-  </si>
-  <si>
-    <t>UAT fixes</t>
-  </si>
-  <si>
-    <t>Submit for research recruiting</t>
-  </si>
-  <si>
-    <t>Submit for UAT recruiting</t>
-  </si>
-  <si>
-    <t>Attend all required VSP reviews</t>
-  </si>
-  <si>
-    <t>Attend all go/no-go meetings</t>
-  </si>
-  <si>
-    <t>QA go/no-go meeting</t>
-  </si>
-  <si>
-    <t>UAT go/no-go meeting</t>
-  </si>
-  <si>
-    <t>Launch go/no-go meeting</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design/backend integration
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  IA review with VSP; Internal long-term planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: IA review; Work with content on all content that is *not* coming from VA Profile
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Technical discovery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build if extra time needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/research prep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If not already done, finish build</t>
+    </r>
+  </si>
+  <si>
+    <t>We'll need to know what the groups are in case we need special filters like filtering out health care notifications for people who don't have VA health care</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Samara to do KPI planning</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/research prep
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start on research plan/finish research plan if we have real content/data from VA Profile; Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continue or finish build </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS works on design
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Work with Liz on list of test cases/test users for the profile; Samara to talk to Lauren about KPI planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with AJ on list of test cases/test users for the profile; Collaborate with Peter as needed on design</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start on research plan (though we won't be able to finish until next sprint)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp collaborate on research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prep for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PM</t>
     </r>
     <r>
@@ -1660,7 +2217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Schedule and hold design intent collab; Meet with VAOS to better understand timeline so we can scope/plan
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
 </t>
     </r>
     <r>
@@ -1682,36 +2239,207 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Finish design; Attend design intent collab</t>
-    </r>
-  </si>
-  <si>
-    <t>Design Intent</t>
-  </si>
-  <si>
-    <t>Information Architecture (IA) Request</t>
-  </si>
-  <si>
-    <t>Final design updates after review with VAOS/Design team/Auth exp team</t>
-  </si>
-  <si>
-    <t>Techinical discovery</t>
-  </si>
-  <si>
-    <t>Technical discovery</t>
-  </si>
-  <si>
-    <t>Technical discovery, if needed</t>
-  </si>
-  <si>
-    <t>Project tasks</t>
+      <t xml:space="preserve">: Finish research; Write up findings; modify designs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Begin build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finish build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Review build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build if not already done</t>
+    </r>
+  </si>
+  <si>
+    <t>QA/Start completing pre-launch checklist items</t>
+  </si>
+  <si>
+    <t>Pre-launch checklist items</t>
+  </si>
+  <si>
+    <t>Sprint 55 (8/25 - 9/7)</t>
+  </si>
+  <si>
+    <t>Sprint 56 (9/8 - 9/21)</t>
+  </si>
+  <si>
+    <t>Sprint 57 (9/22 - 10/5)</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Launch?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1780,8 +2508,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1806,6 +2541,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1820,7 +2561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1850,6 +2591,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2168,7 +2917,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2356,311 +3105,377 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B7" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>64</v>
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="5" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{51265FC4-22CF-254C-BA75-796DFBD6C448}"/>
-    <hyperlink ref="E18" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{B69F35B4-B895-8A42-A41D-0103CF15A6D1}"/>
-    <hyperlink ref="E19" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{90423319-5624-F247-A906-E3EBC388F1A2}"/>
-    <hyperlink ref="E21" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{5053DEE0-E84C-4F49-AD81-4D87E6EB1893}"/>
-    <hyperlink ref="E22" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{506A58F1-EFD9-1648-8D54-66658D952E03}"/>
-    <hyperlink ref="E23" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{47E9D63D-71E6-A946-925C-B3DBA113F06B}"/>
-    <hyperlink ref="E24" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{238723CE-90DD-1743-978D-193E94433838}"/>
-    <hyperlink ref="E25" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{280D780B-ED0C-5E42-A00C-97D174BE93EC}"/>
+    <hyperlink ref="E22" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{D6B5151C-9035-C14D-A81D-C5D5A750FEDE}"/>
+    <hyperlink ref="E23" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{3467ED37-5FA5-8A41-868A-FB41A085B71C}"/>
+    <hyperlink ref="E24" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{9E22B241-E439-E14E-A4D4-3DDA24F69345}"/>
+    <hyperlink ref="E26" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{A04BFA68-F824-6049-AA80-FD583A455E61}"/>
+    <hyperlink ref="E27" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{9920350D-CC29-2541-8A30-882AEEF5F4F9}"/>
+    <hyperlink ref="E28" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{246A9880-7181-2645-9C8D-40FB621A10BF}"/>
+    <hyperlink ref="E29" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{A3C373D5-0321-8A4A-AE27-74E5FB40894B}"/>
+    <hyperlink ref="E30" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{58C06FED-94E7-0546-9E40-42C299F82912}"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E02AFDB4-6467-474A-98BF-ADD1BDF1AFB2}"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{6982BB41-F02B-EF42-BBBA-9A32DDE21281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2668,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2683,13 +3498,13 @@
     <col min="5" max="5" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -2699,277 +3514,358 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B7" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="5" t="s">
+    </row>
+    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{DE78E08D-70E3-2B42-9D4A-4D2F0C630559}"/>
-    <hyperlink ref="E18" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{9FEE942E-A0B4-C947-A48E-269A7B4FF514}"/>
-    <hyperlink ref="E19" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{23DA8B0E-3587-234C-8886-6239553183BA}"/>
-    <hyperlink ref="E21" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{BD573B3C-985C-CB46-BDDD-123505F19FF7}"/>
-    <hyperlink ref="E22" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{3EBC06DB-603A-7E4D-9629-45F08FB29CD2}"/>
-    <hyperlink ref="E23" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{82CE05CF-A40F-1846-A3CA-602C6B8A2CA4}"/>
-    <hyperlink ref="E24" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{4E2FA8FD-3372-8743-8B59-FD0E1AC5D1B4}"/>
-    <hyperlink ref="E25" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{834E027A-4051-B245-B690-03202090DAC5}"/>
+    <hyperlink ref="E23" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{42DF2264-F3B5-2A4C-8C2B-ACCF07532131}"/>
+    <hyperlink ref="E24" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{C7C72B5C-F451-1443-B30F-A15BEC5A14E2}"/>
+    <hyperlink ref="E25" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{0FE59C89-F299-974C-8772-044552589D33}"/>
+    <hyperlink ref="E27" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{CBB77915-ABCC-CE44-B354-07B126B83840}"/>
+    <hyperlink ref="E28" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{371E75F3-472D-EF47-93BB-54E0D9696F4A}"/>
+    <hyperlink ref="E29" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{CDAFA3B5-D124-954F-8436-31DF0E50C378}"/>
+    <hyperlink ref="E30" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{20C2A275-F8F8-9946-B570-184FE2B92985}"/>
+    <hyperlink ref="E31" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{94A9C432-ADBA-FD45-B4B2-8850FE0F7CF3}"/>
+    <hyperlink ref="E21" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E5C1E07E-F5D9-9B44-8FC0-C2A5C3AA8836}"/>
+    <hyperlink ref="E22" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{F406D0AE-8DA1-7647-967B-A0A58157874C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3074,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,7 +3985,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -3111,24 +4007,24 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -3137,75 +4033,75 @@
         <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
@@ -3213,109 +4109,109 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A06145-26D2-A941-9C5B-418E3FE3DEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BECB6-51B0-5144-AA8F-3E20C0D36F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25580" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA redesign" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
   <si>
     <t>PM</t>
   </si>
@@ -1707,9 +1707,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>We can't plan past this point because we don't know when VA Profile will have final content/data. We need this in order to finish the research convo guide, to conduct usability testing, and to move on to QA and the rest of the pre-launch checklist.</t>
-  </si>
-  <si>
     <r>
       <t>Design/Backend integration</t>
     </r>
@@ -1801,6 +1798,655 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Frontend build/research prep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If not already done, finish build</t>
+    </r>
+  </si>
+  <si>
+    <t>We'll need to know what the groups are in case we need special filters like filtering out health care notifications for people who don't have VA health care</t>
+  </si>
+  <si>
+    <r>
+      <t>VAOS works on design
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Work with Liz on list of test cases/test users for the profile; Samara to talk to Lauren about KPI planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with AJ on list of test cases/test users for the profile; Collaborate with Peter as needed on design</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start on research plan (though we won't be able to finish until next sprint)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp collaborate on research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prep for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish research; Write up findings; modify designs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Begin build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finish build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Review build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build if not already done</t>
+    </r>
+  </si>
+  <si>
+    <t>QA/Start completing pre-launch checklist items</t>
+  </si>
+  <si>
+    <t>Pre-launch checklist items</t>
+  </si>
+  <si>
+    <t>Sprint 55 (8/25 - 9/7)</t>
+  </si>
+  <si>
+    <t>Sprint 56 (9/8 - 9/21)</t>
+  </si>
+  <si>
+    <t>Sprint 57 (9/22 - 10/5)</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Launch?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Samara to do KPI planning; Check in with VA Profile on progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start on research plan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/research prep
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft); Check in with VA Profile on progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish research plan if we have real content/data from VA Profile; Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continue or finish build </t>
+    </r>
+  </si>
+  <si>
+    <t>We can't plan past this point because we don't know when VA Profile will have final content/data. We need this in order to finish the research convo guide, to conduct usability testing, and to move on to QA and the rest of the pre-launch checklist. 
+Additionally, we need time before research for the content and IA teams to review the actual groups/notifications and provide feedback to VA Profile.</t>
+  </si>
+  <si>
+    <t>Actual plan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Assist with call center guide; Thorough review of FE build; Submit analytics request
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start call center guide; Thorough review FE build; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Design/backend integration
 PM</t>
     </r>
@@ -1812,7 +2458,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">:  IA review with VSP; Internal long-term planning
+      <t xml:space="preserve">:  IA review with VSP
 </t>
     </r>
     <r>
@@ -1880,559 +2526,6 @@
       </rPr>
       <t>: Finish build if extra time needed</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/research prep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: If not already done, finish build</t>
-    </r>
-  </si>
-  <si>
-    <t>We'll need to know what the groups are in case we need special filters like filtering out health care notifications for people who don't have VA health care</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Samara to do KPI planning</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/research prep
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start on research plan/finish research plan if we have real content/data from VA Profile; Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Continue or finish build </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS works on design
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Work with Liz on list of test cases/test users for the profile; Samara to talk to Lauren about KPI planning
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with AJ on list of test cases/test users for the profile; Collaborate with Peter as needed on design</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Start on research plan (though we won't be able to finish until next sprint)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp collaborate on research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prep for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish research; Write up findings; modify designs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Begin build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Finish build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Review build </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish build if not already done</t>
-    </r>
-  </si>
-  <si>
-    <t>QA/Start completing pre-launch checklist items</t>
-  </si>
-  <si>
-    <t>Pre-launch checklist items</t>
-  </si>
-  <si>
-    <t>Sprint 55 (8/25 - 9/7)</t>
-  </si>
-  <si>
-    <t>Sprint 56 (9/8 - 9/21)</t>
-  </si>
-  <si>
-    <t>Sprint 57 (9/22 - 10/5)</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>Launch?</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2547,6 +2640,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2561,7 +2660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2591,14 +2690,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2914,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,14 +3028,15 @@
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
     <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -2946,8 +3049,11 @@
       <c r="D2" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="E2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2960,8 +3066,11 @@
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E3" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2974,8 +3083,11 @@
       <c r="D4" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="E4" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2988,8 +3100,9 @@
       <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3002,8 +3115,9 @@
       <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3016,8 +3130,9 @@
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3030,8 +3145,9 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3044,8 +3160,9 @@
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3058,8 +3175,9 @@
       <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3072,8 +3190,9 @@
       <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3083,16 +3202,18 @@
       <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -3107,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3143,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3151,26 +3272,26 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -3178,14 +3299,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="16"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="15" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3485,7 +3605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3535,7 +3655,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3543,7 +3663,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -3559,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3567,15 +3687,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>112</v>
+      <c r="B10" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3583,7 +3703,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3591,7 +3711,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3599,28 +3719,28 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,7 +3850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>78</v>
       </c>
@@ -3747,7 +3867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -3764,7 +3884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665BECB6-51B0-5144-AA8F-3E20C0D36F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4AA6B-E0C5-CA4E-9D64-11B08568402E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA redesign" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="126">
   <si>
     <t>PM</t>
   </si>
@@ -95,349 +95,6 @@
   </si>
   <si>
     <t>Sprint 54 (8/11 - 8/24)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold go/no-go for QA; Request QA for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sprint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; Finish call center guide; submit for call center review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish contact center guide; attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conduct QA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: N/A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 25%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 50%, 100%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: N/A
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 50%; 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold go/no-go for QA; Request QA for the following sprint; Finish call center guide; submit for call center review; Complete release plan
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish contact center guide; attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1346,51 +1003,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Launch to 25% and 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%; Samara to confirm retirement date with eBenefits
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 100%</t>
     </r>
   </si>
   <si>
@@ -1619,51 +1231,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  IA review with VSP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Content?; IA review</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Kickoff recruiting/start research
 PM</t>
     </r>
@@ -1839,6 +1406,1234 @@
   </si>
   <si>
     <r>
+      <t>VAOS &amp; Auth exp collaborate on research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prep for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish research; Write up findings; modify designs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Begin build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finish build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Review build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build if not already done</t>
+    </r>
+  </si>
+  <si>
+    <t>QA/Start completing pre-launch checklist items</t>
+  </si>
+  <si>
+    <t>Pre-launch checklist items</t>
+  </si>
+  <si>
+    <t>Sprint 55 (8/25 - 9/7)</t>
+  </si>
+  <si>
+    <t>Sprint 56 (9/8 - 9/21)</t>
+  </si>
+  <si>
+    <t>Sprint 57 (9/22 - 10/5)</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Launch?</t>
+  </si>
+  <si>
+    <t>We can't plan past this point because we don't know when VA Profile will have final content/data. We need this in order to finish the research convo guide, to conduct usability testing, and to move on to QA and the rest of the pre-launch checklist. 
+Additionally, we need time before research for the content and IA teams to review the actual groups/notifications and provide feedback to VA Profile.</t>
+  </si>
+  <si>
+    <t>Actual plan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Assist with call center guide; Thorough review of FE build; Submit analytics request
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start call center guide; Thorough review FE build; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  IA review with VSP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Content?; IA review; Design documentation for frontend</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design/backend integration
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  IA review with VSP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: IA review; Work with content on all content that is *not* coming from VA Profile; Design documentation for frontend
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish build if extra time needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start tech discovery
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Samara to do KPI planning; Check in with VA Profile on progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start on research plan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Technical discovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/research prep
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft); Check in with VA Profile on progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finish research plan if we have real content/data from VA Profile; Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: [Start post-launch research planning]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to 25%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 50%, 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: [Post-launch research planning]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to 50%; 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Continued monitoring of analytics
+Submit for full accessibility review
+Run post-launch testing/research</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold go/no-go for QA; Request QA for the following sprint; Finish call center guide; submit for call center review; Complete release plan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish contact center guide; attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Final tickets; Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold go/no-go for QA; Request QA for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Finish call center guide; submit for call center review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish contact center guide; attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Final tickets; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conduct QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 100%; Samara to confirm retirement date with eBenefits
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch to 100%; Figure out better handling for errors module on GA dashboard
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Look into why failed retrieval # is so high</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold go/no-go for QA; Request QA for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Finish call center guide; submit for call center review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish contact center guide; attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Final tickets; Attend QA go/no-go
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Conduct QA</t>
+  </si>
+  <si>
+    <r>
       <t>VAOS works on design
 PM</t>
     </r>
@@ -1850,7 +2645,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Work with Liz on list of test cases/test users for the profile; Samara to talk to Lauren about KPI planning
+      <t xml:space="preserve">: Work with Liz on list of test cases/test users for the profile; Future planning with VAOS; Samara to talk to Lauren about KPI planning
 </t>
     </r>
     <r>
@@ -1894,637 +2689,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Start on research plan (though we won't be able to finish until next sprint)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp collaborate on research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prep for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish research; Write up findings; modify designs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Begin build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Finish build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Review build </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish build if not already done</t>
-    </r>
-  </si>
-  <si>
-    <t>QA/Start completing pre-launch checklist items</t>
-  </si>
-  <si>
-    <t>Pre-launch checklist items</t>
-  </si>
-  <si>
-    <t>Sprint 55 (8/25 - 9/7)</t>
-  </si>
-  <si>
-    <t>Sprint 56 (9/8 - 9/21)</t>
-  </si>
-  <si>
-    <t>Sprint 57 (9/22 - 10/5)</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>Launch?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Samara to do KPI planning; Check in with VA Profile on progress
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start on research plan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/research prep
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft); Check in with VA Profile on progress
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish research plan if we have real content/data from VA Profile; Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Continue or finish build </t>
-    </r>
-  </si>
-  <si>
-    <t>We can't plan past this point because we don't know when VA Profile will have final content/data. We need this in order to finish the research convo guide, to conduct usability testing, and to move on to QA and the rest of the pre-launch checklist. 
-Additionally, we need time before research for the content and IA teams to review the actual groups/notifications and provide feedback to VA Profile.</t>
-  </si>
-  <si>
-    <t>Actual plan</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Assist with call center guide; Thorough review of FE build; Submit analytics request
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start call center guide; Thorough review FE build; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design/backend integration
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:  IA review with VSP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: IA review; Work with content on all content that is *not* coming from VA Profile
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Technical discovery
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish build if extra time needed</t>
     </r>
   </si>
 </sst>
@@ -2660,7 +2824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2701,6 +2865,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3018,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,16 +3206,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -3058,16 +3223,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -3075,16 +3240,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -3092,43 +3257,47 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="19"/>
     </row>
@@ -3137,13 +3306,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -3152,13 +3321,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E9" s="19"/>
     </row>
@@ -3167,13 +3336,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E10" s="19"/>
     </row>
@@ -3182,25 +3351,25 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="19"/>
     </row>
@@ -3209,7 +3378,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="19"/>
     </row>
@@ -3228,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3243,7 +3412,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3252,10 +3421,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -3264,15 +3433,15 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -3280,10 +3449,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="170" x14ac:dyDescent="0.2">
@@ -3291,7 +3460,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -3299,17 +3468,20 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="15" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,7 +3514,7 @@
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -3356,109 +3528,109 @@
         <v>5</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>4</v>
@@ -3466,109 +3638,109 @@
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3576,12 +3748,12 @@
     </row>
     <row r="39" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3778,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3629,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3639,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -3647,15 +3819,15 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3663,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -3671,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -3679,7 +3851,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3687,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -3695,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3703,7 +3875,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3711,7 +3883,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3719,33 +3891,33 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -3759,109 +3931,109 @@
         <v>5</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>4</v>
@@ -3869,109 +4041,109 @@
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3996,7 +4168,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4007,7 +4179,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -4016,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4026,7 +4198,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4034,15 +4206,15 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4050,7 +4222,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4058,7 +4230,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4105,7 +4277,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -4119,109 +4291,109 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
@@ -4229,109 +4401,109 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4AA6B-E0C5-CA4E-9D64-11B08568402E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D2800B-E463-644D-9D50-C428D1E9CB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA redesign" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="129">
   <si>
     <t>PM</t>
   </si>
@@ -95,85 +95,6 @@
   </si>
   <si>
     <t>Sprint 54 (8/11 - 8/24)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; Techinical docs for privacy and security review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA: Conduct QA</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1356,16 +1277,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/research prep</t>
+    <t>We'll need to know what the groups are in case we need special filters like filtering out health care notifications for people who don't have VA health care</t>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
     </r>
     <r>
       <rPr>
@@ -1377,6 +1293,198 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish research; Write up findings; modify designs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Begin build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Finish build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Review build </t>
     </r>
     <r>
       <rPr>
@@ -1398,319 +1506,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: If not already done, finish build</t>
-    </r>
-  </si>
-  <si>
-    <t>We'll need to know what the groups are in case we need special filters like filtering out health care notifications for people who don't have VA health care</t>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp collaborate on research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prep for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish research; Write up findings; modify designs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Begin build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Finish build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Review build </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>: Finish build if not already done</t>
     </r>
   </si>
@@ -1734,10 +1529,6 @@
   </si>
   <si>
     <t>Launch?</t>
-  </si>
-  <si>
-    <t>We can't plan past this point because we don't know when VA Profile will have final content/data. We need this in order to finish the research convo guide, to conduct usability testing, and to move on to QA and the rest of the pre-launch checklist. 
-Additionally, we need time before research for the content and IA teams to review the actual groups/notifications and provide feedback to VA Profile.</t>
   </si>
   <si>
     <t>Actual plan</t>
@@ -1920,188 +1711,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Finish build if extra time needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Start tech discovery
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Samara to do KPI planning; Check in with VA Profile on progress
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start on research plan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Technical discovery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/research prep
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft); Check in with VA Profile on progress
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish research plan if we have real content/data from VA Profile; Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Start build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue build</t>
     </r>
   </si>
   <si>
@@ -2630,9 +2239,6 @@
     </r>
   </si>
   <si>
-    <t>Conduct QA</t>
-  </si>
-  <si>
     <r>
       <t>VAOS works on design
 PM</t>
@@ -2689,6 +2295,545 @@
         <scheme val="minor"/>
       </rPr>
       <t>Start on research plan (though we won't be able to finish until next sprint)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start tech discovery
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Samara to do KPI planning; Check in with VA Profile on progress; Work with VANotify and VEText to refine list of notifications
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with content and IA to refine list of notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Technical discovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA: Conduct QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Meet with analytics team if needed/available; begin filling out ticket for staging review; begin filling out ticket for privacy review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review; If time/needed, start on QA fixes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA: Conduct QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/research prep
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Check in with VA Profile on progress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start research plan and convo guide if we have real content</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build; Conduct research?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct research? Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If not already done, finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS continues (finishes?) design; Auth exp mini study
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Meet with VAOS as needed; Determine whether VAOS is ready for design intent and IA review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Work with Peter to make sure design is finished; Liz to run mini study; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is VAOS ready for design intent and IA review?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp collaborate on research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); Prep for Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
+    </r>
+  </si>
+  <si>
+    <t>Prep for user research?</t>
+  </si>
+  <si>
+    <r>
+      <t>Has frontend tech discovery happened?
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Content review and finalize items and groups; Share these with VANotify and VEText for concurrence; Share back to VA Profile team; IA review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tech discovery if it didn't happen; Start build if possible</t>
     </r>
   </si>
 </sst>
@@ -2696,7 +2841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2765,15 +2910,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2800,12 +2938,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2824,7 +2956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2854,18 +2986,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3183,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3206,16 +3333,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -3223,16 +3350,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -3240,16 +3367,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -3257,33 +3384,33 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>124</v>
+        <v>28</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -3291,96 +3418,96 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="19"/>
+        <v>111</v>
+      </c>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="E13" s="17"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3395,10 +3522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3406,271 +3533,257 @@
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="15" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="17" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>43</v>
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
@@ -3678,59 +3791,49 @@
         <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>84</v>
-      </c>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -3738,36 +3841,31 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{D6B5151C-9035-C14D-A81D-C5D5A750FEDE}"/>
-    <hyperlink ref="E23" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{3467ED37-5FA5-8A41-868A-FB41A085B71C}"/>
-    <hyperlink ref="E24" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{9E22B241-E439-E14E-A4D4-3DDA24F69345}"/>
-    <hyperlink ref="E26" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{A04BFA68-F824-6049-AA80-FD583A455E61}"/>
-    <hyperlink ref="E27" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{9920350D-CC29-2541-8A30-882AEEF5F4F9}"/>
-    <hyperlink ref="E28" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{246A9880-7181-2645-9C8D-40FB621A10BF}"/>
-    <hyperlink ref="E29" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{A3C373D5-0321-8A4A-AE27-74E5FB40894B}"/>
-    <hyperlink ref="E30" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{58C06FED-94E7-0546-9E40-42C299F82912}"/>
-    <hyperlink ref="E20" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E02AFDB4-6467-474A-98BF-ADD1BDF1AFB2}"/>
-    <hyperlink ref="E21" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{6982BB41-F02B-EF42-BBBA-9A32DDE21281}"/>
+    <hyperlink ref="D21" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{D6B5151C-9035-C14D-A81D-C5D5A750FEDE}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{3467ED37-5FA5-8A41-868A-FB41A085B71C}"/>
+    <hyperlink ref="D23" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{9E22B241-E439-E14E-A4D4-3DDA24F69345}"/>
+    <hyperlink ref="D25" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{A04BFA68-F824-6049-AA80-FD583A455E61}"/>
+    <hyperlink ref="D26" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{9920350D-CC29-2541-8A30-882AEEF5F4F9}"/>
+    <hyperlink ref="D27" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{246A9880-7181-2645-9C8D-40FB621A10BF}"/>
+    <hyperlink ref="D28" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{A3C373D5-0321-8A4A-AE27-74E5FB40894B}"/>
+    <hyperlink ref="D29" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{58C06FED-94E7-0546-9E40-42C299F82912}"/>
+    <hyperlink ref="D19" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E02AFDB4-6467-474A-98BF-ADD1BDF1AFB2}"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{6982BB41-F02B-EF42-BBBA-9A32DDE21281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3775,17 +3873,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="59.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="34.1640625" customWidth="1"/>
   </cols>
@@ -3801,7 +3899,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3811,7 +3909,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -3819,7 +3917,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -3827,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3835,225 +3933,218 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>103</v>
+      <c r="C13" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E25" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -4061,103 +4152,120 @@
         <v>68</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="C31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="B32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="5" t="s">
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{42DF2264-F3B5-2A4C-8C2B-ACCF07532131}"/>
-    <hyperlink ref="E24" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{C7C72B5C-F451-1443-B30F-A15BEC5A14E2}"/>
-    <hyperlink ref="E25" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{0FE59C89-F299-974C-8772-044552589D33}"/>
-    <hyperlink ref="E27" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{CBB77915-ABCC-CE44-B354-07B126B83840}"/>
-    <hyperlink ref="E28" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{371E75F3-472D-EF47-93BB-54E0D9696F4A}"/>
-    <hyperlink ref="E29" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{CDAFA3B5-D124-954F-8436-31DF0E50C378}"/>
-    <hyperlink ref="E30" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{20C2A275-F8F8-9946-B570-184FE2B92985}"/>
-    <hyperlink ref="E31" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{94A9C432-ADBA-FD45-B4B2-8850FE0F7CF3}"/>
-    <hyperlink ref="E21" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E5C1E07E-F5D9-9B44-8FC0-C2A5C3AA8836}"/>
-    <hyperlink ref="E22" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{F406D0AE-8DA1-7647-967B-A0A58157874C}"/>
+    <hyperlink ref="E24" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{42DF2264-F3B5-2A4C-8C2B-ACCF07532131}"/>
+    <hyperlink ref="E25" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{C7C72B5C-F451-1443-B30F-A15BEC5A14E2}"/>
+    <hyperlink ref="E26" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{0FE59C89-F299-974C-8772-044552589D33}"/>
+    <hyperlink ref="E28" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{CBB77915-ABCC-CE44-B354-07B126B83840}"/>
+    <hyperlink ref="E29" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{371E75F3-472D-EF47-93BB-54E0D9696F4A}"/>
+    <hyperlink ref="E30" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{CDAFA3B5-D124-954F-8436-31DF0E50C378}"/>
+    <hyperlink ref="E31" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{20C2A275-F8F8-9946-B570-184FE2B92985}"/>
+    <hyperlink ref="E32" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{94A9C432-ADBA-FD45-B4B2-8850FE0F7CF3}"/>
+    <hyperlink ref="E22" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E5C1E07E-F5D9-9B44-8FC0-C2A5C3AA8836}"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{F406D0AE-8DA1-7647-967B-A0A58157874C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4179,7 +4287,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -4188,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4198,7 +4306,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4206,7 +4314,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4214,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4222,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4230,7 +4338,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4277,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -4291,109 +4399,109 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
@@ -4401,109 +4509,109 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D2800B-E463-644D-9D50-C428D1E9CB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FDF26-8048-2849-8970-832AA1633CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
-    <sheet name="My VA redesign" sheetId="1" r:id="rId1"/>
+    <sheet name="My VA" sheetId="1" r:id="rId1"/>
     <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId2"/>
     <sheet name="Preferred med facility" sheetId="5" r:id="rId3"/>
     <sheet name="Direct deposit for edu" sheetId="2" r:id="rId4"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId5"/>
+    <sheet name="Long term resourcing by person" sheetId="8" r:id="rId5"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
   <si>
     <t>PM</t>
   </si>
@@ -165,140 +166,6 @@
   </si>
   <si>
     <t>Estimate #2: Accelerated timeline</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold staging review; Meet with comms; Submit privacy and security ticket
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes, if still needed; Staging review fixes</t>
-    </r>
   </si>
   <si>
     <r>
@@ -927,10 +794,6 @@
     </r>
   </si>
   <si>
-    <t>Continued monitoring of analytics
-Submit for full accessibility review</t>
-  </si>
-  <si>
     <t>Post-launch checkin with VSP</t>
   </si>
   <si>
@@ -1076,9 +939,6 @@
   </si>
   <si>
     <t>Information Architecture (IA) Request</t>
-  </si>
-  <si>
-    <t>Techinical discovery</t>
   </si>
   <si>
     <t>Technical discovery</t>
@@ -1151,44 +1011,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Kickoff recruiting/start research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hold Midpint review
-Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kickoff recruiting; start research</t>
-    </r>
-  </si>
-  <si>
     <t>General project tasks</t>
   </si>
   <si>
@@ -1280,242 +1102,6 @@
     <t>We'll need to know what the groups are in case we need special filters like filtering out health care notifications for people who don't have VA health care</t>
   </si>
   <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish research; Write up findings; modify designs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Begin build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Finalize list of test cases with Liz/VAOS; Get test cases into Test Rail
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finalize list of test cases with AJ/VAOS; Get test cases into Test Rail; Review build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Finish build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Request QA for next sprint; hold QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Review build </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish build if not already done</t>
-    </r>
-  </si>
-  <si>
-    <t>QA/Start completing pre-launch checklist items</t>
-  </si>
-  <si>
-    <t>Pre-launch checklist items</t>
-  </si>
-  <si>
     <t>Sprint 55 (8/25 - 9/7)</t>
   </si>
   <si>
@@ -1523,12 +1109,6 @@
   </si>
   <si>
     <t>Sprint 57 (9/22 - 10/5)</t>
-  </si>
-  <si>
-    <t>UAT</t>
-  </si>
-  <si>
-    <t>Launch?</t>
   </si>
   <si>
     <t>Actual plan</t>
@@ -2385,7 +1965,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
+      <t xml:space="preserve">: Meet with analytics team if needed/available; begin filling out ticket for staging review; begin filling out ticket for privacy review
 </t>
     </r>
     <r>
@@ -2407,7 +1987,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide
+      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan if not already done; UAT convo guide if not already done; post-launch planning, if time
 </t>
     </r>
     <r>
@@ -2429,7 +2009,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
+      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review; If time/needed, start on QA fixes
 </t>
     </r>
     <r>
@@ -2446,25 +2026,18 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Meet with analytics team if needed/available; begin filling out ticket for staging review; begin filling out ticket for privacy review
+      <t>VAOS finishes design; Auth exp mini study
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Meet with VAOS as needed
 </t>
     </r>
     <r>
@@ -2486,57 +2059,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review; If time/needed, start on QA fixes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA: Conduct QA</t>
-    </r>
-  </si>
-  <si>
-    <t>Submit ticket for analytics review (VSP); Start putting together midpont review request (don't submit); Work with Liz on preliminary list of test cases/users for QA (can be rough draft);</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/research prep
+      <t>: Work with Peter to make sure design *and copy* is finished; Liz to run mini study; IA review for this work; Collab with Peter on convo guide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp summarize research; FE starts build
 PM</t>
     </r>
     <r>
@@ -2547,7 +2075,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Check in with VA Profile on progress
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Hold Midpoint review?
 </t>
     </r>
     <r>
@@ -2569,7 +2097,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Start research plan and convo guide if we have real content</t>
+      <t>: Work with Peter on research summary; Update designs as needed; Update FE documentation as needed</t>
     </r>
     <r>
       <rPr>
@@ -2595,19 +2123,48 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build; Conduct research?</t>
-    </r>
-    <r>
-      <rPr>
+    <t>Submit for full 508 accessibility audit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continue or finish build
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Request QA for Sprint 52
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finalize test cases</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -2615,7 +2172,1013 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coordinate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Launch go/no-go with Lauren Ernest; Hold launch go/no-go 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UAT fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin launch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate launch with VAOS; Monitor phased launch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 25%; Flip switch to 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete launch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate launch with VAOS; Monitor phased launch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hold staging &amp; privacy review
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold staging &amp; privacy review; Coordinate UAT go/no-go with Lauren Ernest; Hold UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attend UAT go/no-go; Recruit for UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend UAT go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on release plan with Lauren Ernest; Prep for staging review; Prep for privacy review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Work with Peter on UAT research plan and convo guide; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fixes from QA; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct QA and create tickets as needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Has frontend tech discovery happened?
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Content review and finalize items and groups; Share these with VANotify and VEText for concurrence; Share back to VA Profile team; IA review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tech discovery if it didn't happen; Break down tickets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp recruit and run research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); Prep for Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical discovery; Break down tickets for build</t>
+    </r>
+  </si>
+  <si>
+    <t>Full 508 accessibility review</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/Research prep if time
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Check in with VA Profile on progress; Put test cases together; Prep for midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with AJ to put together test cases; Research plan and convo guide if time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Request QA for sprint 52
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct and summarize research; Update frontend documentation as necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If not already done, finish build and implement changes from research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: QA go/no-go; Submit for contact center review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Update profile documentation for contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Updates from research; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start prep for staging and privacy reviews
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold QA and create tickets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE: F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ixes from QA; Accessibiility tests for staging review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold Staging and privacy reviews
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review; Submit ticket for analytics review</t>
     </r>
     <r>
       <rPr>
@@ -2637,7 +3200,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Conduct research? Work with AJ on preliminary list of test cases/users for QA (can be rough draft)</t>
+      <t>: Research plan and convo guide if it didn't already happen; Recruit for research</t>
     </r>
     <r>
       <rPr>
@@ -2659,23 +3222,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Continue build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build</t>
-    </r>
-    <r>
-      <rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -2683,7 +3257,187 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 25%/50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 25%/50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q3/Q4/2021</t>
+  </si>
+  <si>
+    <t>Tressa Furner</t>
+  </si>
+  <si>
+    <t>Liz Lantz</t>
+  </si>
+  <si>
+    <t>Erik Hansen</t>
+  </si>
+  <si>
+    <t>Lihan Li</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>Notification preferences</t>
+  </si>
+  <si>
+    <t>Preferred facility</t>
+  </si>
+  <si>
+    <t>General profile updates</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>User roles &amp; permissions</t>
+  </si>
+  <si>
+    <t>Continued monitoring of analytics</t>
+  </si>
+  <si>
+    <r>
+      <t>Finish build if not already done
+** Note on QA**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
     </r>
     <r>
       <rPr>
@@ -2695,22 +3449,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: If not already done, finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS continues (finishes?) design; Auth exp mini study
 PM</t>
     </r>
     <r>
@@ -2721,7 +3459,99 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Meet with VAOS as needed; Determine whether VAOS is ready for design intent and IA review
+      <t>: QA go/no-go; Submit for contact center review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update profile documentation for contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish build if not already done; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">My VA </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
 </t>
     </r>
     <r>
@@ -2743,34 +3573,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Work with Peter to make sure design is finished; Liz to run mini study; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is VAOS ready for design intent and IA review?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp collaborate on research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); Prep for Midpoint review
+      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide; Mini-usability study
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA: Conduct QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT go/no-go
 </t>
     </r>
     <r>
@@ -2792,48 +3652,318 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Work with Peter to put together research plan; Work with Peter to put together convo guide; Work with Peter to put together prototype</t>
-    </r>
-  </si>
-  <si>
-    <t>Prep for user research?</t>
-  </si>
-  <si>
-    <r>
-      <t>Has frontend tech discovery happened?
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Content review and finalize items and groups; Share these with VANotify and VEText for concurrence; Share back to VA Profile team; IA review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tech discovery if it didn't happen; Start build if possible</t>
+      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish explorations; discuss with team; determine method for testing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes, if still needed; Staging review fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold staging review; Meet with comms; Submit privacy and security ticket
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No tasks for redesign work.
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct UAT
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Design test and conduct research (depending on if this is possible based on what method)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: UAT fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct research if not done; if done, write up research and share recommendations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to 25%</t>
     </r>
   </si>
 </sst>
@@ -2841,7 +3971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2910,8 +4040,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2942,6 +4087,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2956,7 +4113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2993,6 +4150,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3310,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3333,16 +4499,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -3350,16 +4516,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -3367,16 +4533,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -3384,92 +4550,92 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E10" s="17"/>
     </row>
@@ -3478,13 +4644,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -3493,10 +4659,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="17"/>
     </row>
@@ -3505,7 +4671,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="17"/>
     </row>
@@ -3522,10 +4688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3538,7 +4704,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3547,10 +4713,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -3558,7 +4724,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -3566,7 +4732,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -3574,10 +4740,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -3585,298 +4751,117 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B13" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
+    <row r="22" spans="1:1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{D6B5151C-9035-C14D-A81D-C5D5A750FEDE}"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{3467ED37-5FA5-8A41-868A-FB41A085B71C}"/>
-    <hyperlink ref="D23" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{9E22B241-E439-E14E-A4D4-3DDA24F69345}"/>
-    <hyperlink ref="D25" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{A04BFA68-F824-6049-AA80-FD583A455E61}"/>
-    <hyperlink ref="D26" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{9920350D-CC29-2541-8A30-882AEEF5F4F9}"/>
-    <hyperlink ref="D27" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{246A9880-7181-2645-9C8D-40FB621A10BF}"/>
-    <hyperlink ref="D28" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{A3C373D5-0321-8A4A-AE27-74E5FB40894B}"/>
-    <hyperlink ref="D29" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{58C06FED-94E7-0546-9E40-42C299F82912}"/>
-    <hyperlink ref="D19" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E02AFDB4-6467-474A-98BF-ADD1BDF1AFB2}"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{6982BB41-F02B-EF42-BBBA-9A32DDE21281}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -3909,7 +4894,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -3917,7 +4902,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -3925,7 +4910,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -3933,340 +4918,103 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-research-plan-review.md" xr:uid="{42DF2264-F3B5-2A4C-8C2B-ACCF07532131}"/>
-    <hyperlink ref="E25" r:id="rId2" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-analytics-request.md" xr:uid="{C7C72B5C-F451-1443-B30F-A15BEC5A14E2}"/>
-    <hyperlink ref="E26" r:id="rId3" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-midpoint-review.md" xr:uid="{0FE59C89-F299-974C-8772-044552589D33}"/>
-    <hyperlink ref="E28" r:id="rId4" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-contact-center-review.md" xr:uid="{CBB77915-ABCC-CE44-B354-07B126B83840}"/>
-    <hyperlink ref="E29" r:id="rId5" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-staging-review.md" xr:uid="{371E75F3-472D-EF47-93BB-54E0D9696F4A}"/>
-    <hyperlink ref="E30" r:id="rId6" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-privacy-security-review.md" xr:uid="{CDAFA3B5-D124-954F-8436-31DF0E50C378}"/>
-    <hyperlink ref="E31" r:id="rId7" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-accessibility-audit.md" xr:uid="{20C2A275-F8F8-9946-B570-184FE2B92985}"/>
-    <hyperlink ref="E32" r:id="rId8" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-post-launch.md" xr:uid="{94A9C432-ADBA-FD45-B4B2-8850FE0F7CF3}"/>
-    <hyperlink ref="E22" r:id="rId9" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-design-intent.md" xr:uid="{E5C1E07E-F5D9-9B44-8FC0-C2A5C3AA8836}"/>
-    <hyperlink ref="E23" r:id="rId10" display="https://github.com/department-of-veterans-affairs/va.gov-team/blob/master/platform/working-with-vsp/vsp-collaboration-cycle/touchpoint-ia-request.md" xr:uid="{F406D0AE-8DA1-7647-967B-A0A58157874C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4276,7 +5024,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4287,7 +5035,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -4296,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4306,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4314,7 +5062,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4322,15 +5070,15 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4338,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4367,6 +5115,531 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.1640625" style="18" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="20" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4385,7 +5658,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -4399,109 +5672,109 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
@@ -4509,109 +5782,109 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9FDF26-8048-2849-8970-832AA1633CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675D464-878C-304C-988A-7BA577DB93DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
   <si>
     <t>PM</t>
   </si>
@@ -458,244 +458,7 @@
     </r>
   </si>
   <si>
-    <t>Estimate #3: Super aggressive timeline</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold staging review; Meet with comms; Submit privacy and security ticket; UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attend UAT go/no-go; UAT recruiting</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QA fixes; Staging review fixes </t>
-    </r>
-  </si>
-  <si>
     <t>Estimate #1: Conservative estimate (though assumes no roadblocks)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Assist with call center guide; Thorough review of FE build; Meet with analytics team; Hold go/no-go for QA; Request QA for next sprint 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start call center guide; Thorough review FE build; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish call center guide; submit for call center review; begin filling out ticket for staging review; begin filling out ticket for privacy review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish contact center guide; attend QA go/no-go; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend QA go/no-go; Accessibility tests for staging review; Techinical docs for privacy and security review; Begin QA fixes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conduct QA</t>
-    </r>
   </si>
   <si>
     <t>Direct deposit: Long term planning</t>
@@ -2127,6 +1890,1583 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coordinate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Launch go/no-go with Lauren Ernest; Hold launch go/no-go 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UAT fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Begin launch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate launch with VAOS; Monitor phased launch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 25%; Flip switch to 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete launch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate launch with VAOS; Monitor phased launch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hold staging &amp; privacy review
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold staging &amp; privacy review; Coordinate UAT go/no-go with Lauren Ernest; Hold UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attend UAT go/no-go; Recruit for UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend UAT go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on release plan with Lauren Ernest; Prep for staging review; Prep for privacy review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Work with Peter on UAT research plan and convo guide; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fixes from QA; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct QA and create tickets as needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Has frontend tech discovery happened?
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Content review and finalize items and groups; Share these with VANotify and VEText for concurrence; Share back to VA Profile team; IA review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tech discovery if it didn't happen; Break down tickets</t>
+    </r>
+  </si>
+  <si>
+    <t>Full 508 accessibility review</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build/Research prep if time
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Check in with VA Profile on progress; Put test cases together; Prep for midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with AJ to put together test cases; Research plan and convo guide if time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Request QA for sprint 52
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct and summarize research; Update frontend documentation as necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If not already done, finish build and implement changes from research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start prep for staging and privacy reviews
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold QA and create tickets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE: F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ixes from QA; Accessibiility tests for staging review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold Staging and privacy reviews
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 25%/50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 25%/50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q3/Q4/2021</t>
+  </si>
+  <si>
+    <t>Tressa Furner</t>
+  </si>
+  <si>
+    <t>Liz Lantz</t>
+  </si>
+  <si>
+    <t>Erik Hansen</t>
+  </si>
+  <si>
+    <t>Lihan Li</t>
+  </si>
+  <si>
+    <t>Notification preferences</t>
+  </si>
+  <si>
+    <t>Preferred facility</t>
+  </si>
+  <si>
+    <t>General profile updates</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>User roles &amp; permissions</t>
+  </si>
+  <si>
+    <t>Continued monitoring of analytics</t>
+  </si>
+  <si>
+    <r>
+      <t>Finish build if not already done
+** Note on QA**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA go/no-go; Submit for contact center review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update profile documentation for contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish build if not already done; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">My VA </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide; Mini-usability study
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA: Conduct QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish explorations; discuss with team; determine method for testing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes, if still needed; Staging review fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct UAT
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Design test and conduct research (depending on if this is possible based on what method)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: UAT fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct research if not done; if done, write up research and share recommendations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to 25%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No tasks for redesign work.
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp recruit and run research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical discovery; Break down tickets for build</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Continue or finish build
 PM: </t>
     </r>
@@ -2138,7 +3478,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Request QA for Sprint 52
+      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Submit ticket for analytics review (VSP); Request QA for Sprint 52
 </t>
     </r>
     <r>
@@ -2195,8 +3535,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">UAT
-</t>
+      <t>Frontend build</t>
     </r>
     <r>
       <rPr>
@@ -2218,165 +3557,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coordinate</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Launch go/no-go with Lauren Ernest; Hold launch go/no-go 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hold UAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UAT fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Begin launch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate launch with VAOS; Monitor phased launch
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 25%; Flip switch to 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Complete launch</t>
-    </r>
-    <r>
-      <rPr>
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -2384,234 +3580,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate launch with VAOS; Monitor phased launch
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hold staging &amp; privacy review
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold staging &amp; privacy review; Coordinate UAT go/no-go with Lauren Ernest; Hold UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend UAT go/no-go; Recruit for UAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend UAT go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on release plan with Lauren Ernest; Prep for staging review; Prep for privacy review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Work with Peter on UAT research plan and convo guide; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Fixes from QA; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Conduct QA and create tickets as needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Has frontend tech discovery happened?
 Design</t>
     </r>
     <r>
@@ -2622,7 +3590,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Content review and finalize items and groups; Share these with VANotify and VEText for concurrence; Share back to VA Profile team; IA review</t>
+      <t>: Research plan and convo guide if it didn't already happen; Recruit for research</t>
     </r>
     <r>
       <rPr>
@@ -2644,23 +3612,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Tech discovery if it didn't happen; Break down tickets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp recruit and run research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Submit ticket for analytics review (VSP); Prep for Midpoint review
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
 </t>
     </r>
     <r>
@@ -2682,256 +3679,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technical discovery; Break down tickets for build</t>
-    </r>
-  </si>
-  <si>
-    <t>Full 508 accessibility review</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build/Research prep if time
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Check in with VA Profile on progress; Put test cases together; Prep for midpoint review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with AJ to put together test cases; Research plan and convo guide if time</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Start build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Request QA for sprint 52
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Conduct and summarize research; Update frontend documentation as necessary</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: If not already done, finish build and implement changes from research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: QA go/no-go; Submit for contact center review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">: Update profile documentation for contact center guide 
 </t>
     </r>
@@ -2977,993 +3724,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start prep for staging and privacy reviews
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hold QA and create tickets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE: F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ixes from QA; Accessibiility tests for staging review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold Staging and privacy reviews
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold midpoint review; Submit ticket for analytics review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Research plan and convo guide if it didn't already happen; Recruit for research</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold UAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fixes from UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 25%/50%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 25%/50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 100%</t>
-    </r>
-  </si>
-  <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q3/Q4/2021</t>
-  </si>
-  <si>
-    <t>Tressa Furner</t>
-  </si>
-  <si>
-    <t>Liz Lantz</t>
-  </si>
-  <si>
-    <t>Erik Hansen</t>
-  </si>
-  <si>
-    <t>Lihan Li</t>
-  </si>
-  <si>
-    <t>ç</t>
-  </si>
-  <si>
-    <t>Notification preferences</t>
-  </si>
-  <si>
-    <t>Preferred facility</t>
-  </si>
-  <si>
-    <t>General profile updates</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>User roles &amp; permissions</t>
-  </si>
-  <si>
-    <t>Continued monitoring of analytics</t>
-  </si>
-  <si>
-    <r>
-      <t>Finish build if not already done
-** Note on QA**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA go/no-go; Submit for contact center review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Update profile documentation for contact center guide 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish build if not already done; Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">My VA </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide; Mini-usability study
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA: Conduct QA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish explorations; discuss with team; determine method for testing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes, if still needed; Staging review fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold staging review; Meet with comms; Submit privacy and security ticket
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: No tasks for redesign work.
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Conduct UAT
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Design test and conduct research (depending on if this is possible based on what method)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: UAT fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Conduct research if not done; if done, write up research and share recommendations
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 25%</t>
     </r>
   </si>
 </sst>
@@ -4113,7 +3873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4159,6 +3919,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4474,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4485,33 +4248,29 @@
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" customWidth="1"/>
-    <col min="5" max="5" width="53.83203125" customWidth="1"/>
+    <col min="4" max="4" width="53.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4521,14 +4280,11 @@
       <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4538,144 +4294,122 @@
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="D4" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="D6" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>147</v>
+      <c r="B7" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="D7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
@@ -4690,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4704,7 +4438,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -4713,10 +4447,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4724,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4732,7 +4466,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4740,10 +4474,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4751,7 +4485,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4759,7 +4493,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4767,7 +4501,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4776,15 +4510,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4792,7 +4526,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -4800,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4808,31 +4542,31 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4843,12 +4577,12 @@
     </row>
     <row r="21" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="323" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4860,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4884,7 +4618,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4894,7 +4628,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4902,7 +4636,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -4910,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4918,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -4926,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4934,7 +4668,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -4942,7 +4676,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4951,7 +4685,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4960,7 +4694,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -4969,7 +4703,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -4978,33 +4712,33 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -5035,7 +4769,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -5044,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -5054,7 +4788,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -5062,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -5070,7 +4804,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5078,7 +4812,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5086,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5118,83 +4852,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.1640625" style="18" customWidth="1"/>
-    <col min="2" max="4" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="20" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>130</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B4" s="26">
         <v>0.7</v>
@@ -5209,7 +4937,7 @@
         <v>0.7</v>
       </c>
       <c r="F4" s="26">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G4" s="26">
         <v>0</v>
@@ -5226,45 +4954,39 @@
       <c r="K4" s="26">
         <v>0</v>
       </c>
-      <c r="L4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B7" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="26">
         <v>0.3</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0.7</v>
       </c>
       <c r="F7" s="26">
         <v>0.3</v>
       </c>
       <c r="G7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="26">
         <v>0.3</v>
       </c>
-      <c r="H7" s="26">
-        <v>0.1</v>
-      </c>
       <c r="I7" s="26">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="26">
         <v>0</v>
@@ -5272,37 +4994,34 @@
       <c r="K7" s="26">
         <v>0</v>
       </c>
-      <c r="L7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B8" s="26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C8" s="26">
         <v>0.4</v>
       </c>
       <c r="D8" s="26">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="26">
         <v>0.1</v>
       </c>
-      <c r="F8" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="H8" s="26">
         <v>0.3</v>
       </c>
-      <c r="H8" s="26">
-        <v>0.1</v>
-      </c>
       <c r="I8" s="26">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="26">
         <v>0</v>
@@ -5310,62 +5029,53 @@
       <c r="K8" s="26">
         <v>0</v>
       </c>
-      <c r="L8" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B9" s="26">
         <v>0.2</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B12" s="26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C12" s="26">
         <v>0.2</v>
@@ -5374,13 +5084,13 @@
         <v>0.2</v>
       </c>
       <c r="E12" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="26">
         <v>0.1</v>
       </c>
       <c r="G12" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="26">
         <v>0</v>
@@ -5394,16 +5104,13 @@
       <c r="K12" s="26">
         <v>0</v>
       </c>
-      <c r="L12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B13" s="26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C13" s="26">
         <v>0.4</v>
@@ -5412,117 +5119,105 @@
         <v>0.4</v>
       </c>
       <c r="E13" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="26">
         <v>0.2</v>
       </c>
       <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
         <v>0.2</v>
       </c>
-      <c r="H13" s="26">
-        <v>0</v>
-      </c>
       <c r="I13" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J13" s="26">
         <v>0.1</v>
       </c>
       <c r="K13" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B14" s="26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C14" s="26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="26">
         <v>0.4</v>
       </c>
       <c r="E14" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="26">
         <v>0.2</v>
       </c>
       <c r="G14" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="26">
         <v>0.2</v>
       </c>
-      <c r="H14" s="26">
+      <c r="I14" s="26">
         <v>0.1</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0.2</v>
       </c>
       <c r="J14" s="26">
         <v>0.1</v>
       </c>
       <c r="K14" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B15" s="26">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B18" s="26">
         <v>0.05</v>
@@ -5552,15 +5247,12 @@
         <v>0.05</v>
       </c>
       <c r="K18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="L18" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B19" s="26">
         <v>0.05</v>
@@ -5590,48 +5282,42 @@
         <v>0.05</v>
       </c>
       <c r="K19" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="L19" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="26">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5658,7 +5344,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -5672,109 +5358,109 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
@@ -5782,109 +5468,109 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675D464-878C-304C-988A-7BA577DB93DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659A452-1DB1-A24E-A066-A2A24C6AD8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -2431,8 +2431,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
-</t>
+      <t>QA</t>
     </r>
     <r>
       <rPr>
@@ -2464,7 +2463,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Request QA for sprint 52
+      <t xml:space="preserve">: Start prep for staging and privacy reviews
 </t>
     </r>
     <r>
@@ -2486,7 +2485,932 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Conduct and summarize research; Update frontend documentation as necessary</t>
+      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold QA and create tickets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE: F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ixes from QA; Accessibiility tests for staging review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold Staging and privacy reviews
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 25%/50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 25%/50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q3/Q4/2021</t>
+  </si>
+  <si>
+    <t>Tressa Furner</t>
+  </si>
+  <si>
+    <t>Liz Lantz</t>
+  </si>
+  <si>
+    <t>Erik Hansen</t>
+  </si>
+  <si>
+    <t>Lihan Li</t>
+  </si>
+  <si>
+    <t>Notification preferences</t>
+  </si>
+  <si>
+    <t>Preferred facility</t>
+  </si>
+  <si>
+    <t>General profile updates</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>User roles &amp; permissions</t>
+  </si>
+  <si>
+    <t>Continued monitoring of analytics</t>
+  </si>
+  <si>
+    <r>
+      <t>Finish build if not already done
+** Note on QA**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA go/no-go; Submit for contact center review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update profile documentation for contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish build if not already done; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">My VA </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide; Mini-usability study
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA: Conduct QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish explorations; discuss with team; determine method for testing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes, if still needed; Staging review fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct UAT
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Design test and conduct research (depending on if this is possible based on what method)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: UAT fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct research if not done; if done, write up research and share recommendations
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to 25%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No tasks for redesign work.
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp recruit and run research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical discovery; Break down tickets for build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continue or finish build
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Submit ticket for analytics review (VSP); Request QA for Sprint 52
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finalize test cases</t>
     </r>
     <r>
       <rPr>
@@ -2508,20 +3432,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: If not already done, finish build and implement changes from research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA go/no-go</t>
     </r>
     <r>
       <rPr>
@@ -2553,7 +3477,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Start prep for staging and privacy reviews
+      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
 </t>
     </r>
     <r>
@@ -2575,119 +3499,97 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hold QA and create tickets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE: F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ixes from QA; Accessibiility tests for staging review</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold Staging and privacy reviews
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch go/no-go</t>
+      <t xml:space="preserve">: Update profile documentation for contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Updates from research; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review</t>
     </r>
     <r>
       <rPr>
@@ -2709,798 +3611,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Hold UAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fixes from UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 25%/50%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 25%/50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 100%</t>
-    </r>
-  </si>
-  <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q3/Q4/2021</t>
-  </si>
-  <si>
-    <t>Tressa Furner</t>
-  </si>
-  <si>
-    <t>Liz Lantz</t>
-  </si>
-  <si>
-    <t>Erik Hansen</t>
-  </si>
-  <si>
-    <t>Lihan Li</t>
-  </si>
-  <si>
-    <t>Notification preferences</t>
-  </si>
-  <si>
-    <t>Preferred facility</t>
-  </si>
-  <si>
-    <t>General profile updates</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>User roles &amp; permissions</t>
-  </si>
-  <si>
-    <t>Continued monitoring of analytics</t>
-  </si>
-  <si>
-    <r>
-      <t>Finish build if not already done
-** Note on QA**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA go/no-go; Submit for contact center review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Update profile documentation for contact center guide 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish build if not already done; Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">My VA </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Meet with analytics team; begin filling out ticket for staging review; begin filling out ticket for privacy review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; UAT research plan; UAT convo guide; Mini-usability study
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Accessibility tests for staging review; Technical docs for privacy and security review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA: Conduct QA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish explorations; discuss with team; determine method for testing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes, if still needed; Staging review fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Conduct UAT
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Design test and conduct research (depending on if this is possible based on what method)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: UAT fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Conduct research if not done; if done, write up research and share recommendations
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 25%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: No tasks for redesign work.
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp recruit and run research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technical discovery; Break down tickets for build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Continue or finish build
-PM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Submit ticket for analytics review (VSP); Request QA for Sprint 52
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finalize test cases</t>
+      <t>: Recruit for and run research</t>
     </r>
     <r>
       <rPr>
@@ -3535,7 +3646,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Frontend build</t>
+      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
+</t>
     </r>
     <r>
       <rPr>
@@ -3557,40 +3669,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Research plan and convo guide if it didn't already happen; Recruit for research</t>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Request QA for sprint 52
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Summarize research; Update frontend documentation as necessary</t>
     </r>
     <r>
       <rPr>
@@ -3612,118 +3723,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Update profile documentation for contact center guide 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Updates from research; Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
+      <t>: If not already done, finish build and implement changes from research</t>
     </r>
   </si>
 </sst>
@@ -4317,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -4331,13 +4331,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4345,7 +4345,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -4357,7 +4357,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>94</v>
@@ -4369,7 +4369,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>95</v>
@@ -4424,8 +4424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4496,7 +4496,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4518,7 +4518,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4526,7 +4526,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4542,7 +4542,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -4550,7 +4550,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4594,7 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4660,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4676,7 +4676,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4685,7 +4685,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4812,7 +4812,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4852,7 +4852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -4901,10 +4901,10 @@
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>122</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -4912,17 +4912,17 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="26">
         <v>0.7</v>
@@ -4957,12 +4957,12 @@
     </row>
     <row r="6" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="26">
         <v>0.2</v>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="26">
         <v>0.4</v>
@@ -5032,47 +5032,47 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="26">
         <v>0.2</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="26">
         <v>0.2</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="26">
         <v>0.4</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="26">
         <v>0.2</v>
@@ -5177,47 +5177,47 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="26">
         <v>0.05</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="26">
         <v>0.05</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="26">
         <v>0.05</v>
@@ -5287,37 +5287,37 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659A452-1DB1-A24E-A066-A2A24C6AD8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16CF77-2BA9-AE40-901D-EBEC2136EE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="3" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
     <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId2"/>
     <sheet name="Preferred med facility" sheetId="5" r:id="rId3"/>
-    <sheet name="Direct deposit for edu" sheetId="2" r:id="rId4"/>
+    <sheet name="General auth exp work" sheetId="9" r:id="rId4"/>
     <sheet name="Long term resourcing by person" sheetId="8" r:id="rId5"/>
     <sheet name="Task list for projects" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
   <si>
     <t>PM</t>
   </si>
@@ -461,100 +461,7 @@
     <t>Estimate #1: Conservative estimate (though assumes no roadblocks)</t>
   </si>
   <si>
-    <t>Direct deposit: Long term planning</t>
-  </si>
-  <si>
     <t>Planned tasks</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Wrap updated content in a react widget so it will show conditionally throughout phased launch #21725 (needs to be done as early in the sprint as possible before go/no-go); Launch to 10%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launches to 25% and 50%; Samara to keep eBenefits and BGS updated on launch; Let content team know anticipated 100% date so that they can publish the updated content page. #20096
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 25% and 50%</t>
-    </r>
   </si>
   <si>
     <t>Post-launch checkin with VSP</t>
@@ -1424,73 +1331,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%; Samara to confirm retirement date with eBenefits
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Launch to 100%; Figure out better handling for errors module on GA dashboard
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Look into why failed retrieval # is so high</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">: Hold go/no-go for QA; Request QA for </t>
     </r>
     <r>
@@ -2771,9 +2611,6 @@
     <t>User roles &amp; permissions</t>
   </si>
   <si>
-    <t>Continued monitoring of analytics</t>
-  </si>
-  <si>
     <r>
       <t>Finish build if not already done
 ** Note on QA**</t>
@@ -3725,6 +3562,84 @@
       </rPr>
       <t>: If not already done, finish build and implement changes from research</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Refine the plan we've started, start grabbing screenshots #24973</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete synthesis + present to team #24977</t>
+    </r>
+  </si>
+  <si>
+    <t>Auth exp. research project</t>
+  </si>
+  <si>
+    <t>Taylor Mitchell</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -4267,7 +4182,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -4295,7 +4210,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4303,13 +4218,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="153" x14ac:dyDescent="0.2">
@@ -4317,13 +4232,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4331,13 +4246,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4345,7 +4260,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -4357,10 +4272,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -4369,10 +4284,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17"/>
     </row>
@@ -4381,10 +4296,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -4393,10 +4308,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -4405,7 +4320,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -4424,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4438,7 +4353,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -4447,10 +4362,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4458,7 +4373,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4466,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4474,10 +4389,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4485,7 +4400,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4493,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4501,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4510,7 +4425,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4518,7 +4433,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4526,7 +4441,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -4534,7 +4449,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4542,31 +4457,31 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -4577,12 +4492,12 @@
     </row>
     <row r="21" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="323" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4594,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4618,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -4628,7 +4543,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4636,7 +4551,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -4644,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4652,7 +4567,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -4660,7 +4575,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4668,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -4676,7 +4591,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4685,7 +4600,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4694,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -4703,7 +4618,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -4712,33 +4627,33 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -4754,22 +4669,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA211C-75D3-8849-BD78-3BB0149263A4}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE076FF-0B22-A84F-8599-AF8EA0155036}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="62" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -4778,83 +4693,86 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4890,21 +4808,21 @@
         <v>18</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -4912,17 +4830,17 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B4" s="26">
         <v>0.7</v>
@@ -4957,21 +4875,21 @@
     </row>
     <row r="6" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="26">
         <v>0.4</v>
       </c>
       <c r="D7" s="26">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="26">
         <v>0.3</v>
@@ -4997,7 +4915,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B8" s="26">
         <v>0.4</v>
@@ -5032,109 +4950,109 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B9" s="26">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26">
         <v>0.2</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D9" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="26">
+      <c r="B10" s="26">
         <v>0.2</v>
       </c>
-      <c r="C12" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0</v>
+      <c r="C10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
       </c>
       <c r="H13" s="26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="26">
         <v>0</v>
@@ -5142,10 +5060,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B14" s="26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C14" s="26">
         <v>0.4</v>
@@ -5160,7 +5078,7 @@
         <v>0.2</v>
       </c>
       <c r="G14" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="26">
         <v>0.2</v>
@@ -5177,147 +5095,228 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B15" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="26">
         <v>0.05</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="J18" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0</v>
+      <c r="D16" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="26">
         <v>0.05</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C22" s="26">
         <v>0.05</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D22" s="26">
         <v>0.05</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E22" s="26">
         <v>0.05</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F22" s="26">
         <v>0.05</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G22" s="26">
         <v>0.05</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H22" s="26">
         <v>0.05</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I22" s="26">
         <v>0.05</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J22" s="26">
         <v>0.05</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K22" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>130</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5344,7 +5343,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
@@ -5358,109 +5357,109 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>4</v>
@@ -5468,109 +5467,109 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F16CF77-2BA9-AE40-901D-EBEC2136EE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BCA376-5652-2847-A807-0576D1EE32C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="3" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -4340,7 +4340,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4672,8 +4672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE076FF-0B22-A84F-8599-AF8EA0155036}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4706,33 +4706,36 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4770,9 +4773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4889,7 +4892,7 @@
         <v>0.4</v>
       </c>
       <c r="D7" s="26">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="26">
         <v>0.3</v>
@@ -4956,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="26">
         <v>0.2</v>
@@ -4965,7 +4968,7 @@
         <v>0.2</v>
       </c>
       <c r="F9" s="26">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="26">
         <v>0</v>
@@ -4988,10 +4991,10 @@
         <v>125</v>
       </c>
       <c r="B10" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>126</v>
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.15</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>126</v>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BCA376-5652-2847-A807-0576D1EE32C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A3643-CA68-0B49-8084-021CF2152BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="3" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
     <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId2"/>
     <sheet name="Preferred med facility" sheetId="5" r:id="rId3"/>
-    <sheet name="General auth exp work" sheetId="9" r:id="rId4"/>
+    <sheet name="Additional research" sheetId="9" r:id="rId4"/>
     <sheet name="Long term resourcing by person" sheetId="8" r:id="rId5"/>
     <sheet name="Task list for projects" sheetId="7" r:id="rId6"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="158">
   <si>
     <t>PM</t>
   </si>
@@ -2392,51 +2392,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Hold Staging and privacy reviews
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>: Launch go/no-go</t>
     </r>
     <r>
@@ -3282,117 +3237,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>QA go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Update profile documentation for contact center guide 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Updates from research; Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Frontend build</t>
     </r>
     <r>
@@ -3483,6 +3327,107 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Refine the plan we've started, start grabbing screenshots #24973</t>
+    </r>
+  </si>
+  <si>
+    <t>Auth exp. research project</t>
+  </si>
+  <si>
+    <t>Taylor Mitchell</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sprint 58 (9/22 - 10/5)</t>
+  </si>
+  <si>
+    <t>Sprint 59 (10/6 - 10/19)</t>
+  </si>
+  <si>
+    <t>Sprint 60 (10/20 - 11/2)</t>
+  </si>
+  <si>
+    <t>Sprint 61 (11/3- 11/16)</t>
+  </si>
+  <si>
+    <t>Sprint 62 (11/17 - 11/30)</t>
+  </si>
+  <si>
+    <t>Sprint 63 (12/1 - 12/14)</t>
+  </si>
+  <si>
+    <t>Sprint 64 (12/15 - 12/28)</t>
+  </si>
+  <si>
+    <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold Staging and privacy reviews; UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
 </t>
     </r>
@@ -3516,7 +3461,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Request QA for sprint 52
+      <t xml:space="preserve">: 
 </t>
     </r>
     <r>
@@ -3565,81 +3510,326 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Refine the plan we've started, start grabbing screenshots #24973</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Complete synthesis + present to team #24977</t>
-    </r>
-  </si>
-  <si>
-    <t>Auth exp. research project</t>
-  </si>
-  <si>
-    <t>Taylor Mitchell</t>
-  </si>
-  <si>
-    <t>N/A</t>
+      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Request QA for sprint 56</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete call center guide updates</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; You can update the existing profile call center guide and just add a section to it for notification preferences</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: N/A 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
+FE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If needed, implement updates from research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependent's user roles research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Planning and recruiting
+  - Not sure yet whether this will be Liz or Tressa. Figure out who should work on this based on bandwidth and other project work.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974
+  - If Liz needs to do the dependent's user roles research, we will have to move the general auth experience research back by a couple of sprints</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependent's user roles research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct research and summarize findings</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Not sure yet whether this will be Liz or Tressa. Figure out who should work on this based on bandwidth and other project work.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete synthesis + present to team #24977
+  - If Liz needs to do the dependent's user roles research, we will have to move the general auth experience research back by a couple of sprints</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dependents user roles research**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If Liz does this work. Other work may need to move around accordingly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dependents user roles research**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If Tressa does this work. Other work may need to move around accordingly.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3788,7 +3978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3835,6 +4025,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4154,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4232,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -4246,13 +4439,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4260,7 +4453,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -4272,7 +4465,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>91</v>
@@ -4284,7 +4477,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>92</v>
@@ -4337,10 +4530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4416,7 +4609,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4425,78 +4618,123 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="323" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="27" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4509,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4575,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4591,7 +4829,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4600,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4672,14 +4910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE076FF-0B22-A84F-8599-AF8EA0155036}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,7 +4941,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4711,7 +4949,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4719,23 +4957,23 @@
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4771,16 +5009,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" style="18" customWidth="1"/>
     <col min="2" max="3" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="22.83203125" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
@@ -4822,10 +5060,10 @@
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -4833,29 +5071,29 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="26">
         <v>0.7</v>
       </c>
       <c r="C4" s="26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="26">
         <v>0</v>
@@ -4876,61 +5114,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="I7" s="26">
+    <row r="5" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="26">
         <v>0</v>
       </c>
-      <c r="J7" s="26">
+      <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="D5" s="26">
         <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C8" s="26">
         <v>0.4</v>
       </c>
       <c r="D8" s="26">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E8" s="26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="26">
         <v>0.3</v>
@@ -4953,28 +5191,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B9" s="26">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C9" s="26">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D9" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="26">
         <v>0.2</v>
       </c>
       <c r="F9" s="26">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G9" s="26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H9" s="26">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I9" s="26">
         <v>0</v>
@@ -4988,144 +5226,144 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0.15</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="E11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="26">
         <v>0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="I13" s="26">
+      <c r="D12" s="26">
         <v>0</v>
       </c>
-      <c r="J13" s="26">
+      <c r="E12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="26">
         <v>0</v>
       </c>
-      <c r="K13" s="26">
+      <c r="H12" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="C14" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="D14" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="26">
+      <c r="I12" s="26">
         <v>0</v>
       </c>
-      <c r="H14" s="26">
-        <v>0.2</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="26">
+      <c r="J12" s="26">
         <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B15" s="26">
         <v>0.2</v>
       </c>
       <c r="C15" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="26">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G15" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="26">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="26">
         <v>0</v>
@@ -5133,193 +5371,263 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>144</v>
+      <c r="D18" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="26">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="I22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="J22" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="H23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="I23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="J23" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="K23" s="26">
-        <v>0</v>
+      <c r="D21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>126</v>
+      <c r="B26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A3643-CA68-0B49-8084-021CF2152BAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F53BBA-44F2-0643-B93F-6399FFC1479A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="3" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="159">
   <si>
     <t>PM</t>
   </si>
@@ -2771,7 +2771,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: UAT go/no-go
+      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
 </t>
     </r>
     <r>
@@ -2793,7 +2793,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Attend UAT go/no-go; UAT recruiting
+      <t xml:space="preserve">: No tasks for redesign work.
   - </t>
     </r>
     <r>
@@ -2815,7 +2815,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Finish explorations; discuss with team; determine method for testing
+      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
 </t>
     </r>
     <r>
@@ -2837,8 +2837,184 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: QA fixes, if still needed; Staging review fixes</t>
-    </r>
+      <t>: QA fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp recruit and run research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical discovery; Break down tickets for build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continue or finish build
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Submit ticket for analytics review (VSP); Request QA for Sprint 52
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finalize test cases</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Refine the plan we've started, start grabbing screenshots #24973</t>
+    </r>
+  </si>
+  <si>
+    <t>Auth exp. research project</t>
+  </si>
+  <si>
+    <t>Taylor Mitchell</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sprint 58 (9/22 - 10/5)</t>
+  </si>
+  <si>
+    <t>Sprint 59 (10/6 - 10/19)</t>
+  </si>
+  <si>
+    <t>Sprint 60 (10/20 - 11/2)</t>
+  </si>
+  <si>
+    <t>Sprint 61 (11/3- 11/16)</t>
+  </si>
+  <si>
+    <t>Sprint 62 (11/17 - 11/30)</t>
+  </si>
+  <si>
+    <t>Sprint 63 (12/1 - 12/14)</t>
+  </si>
+  <si>
+    <t>Sprint 64 (12/15 - 12/28)</t>
+  </si>
+  <si>
+    <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE</t>
   </si>
   <si>
     <r>
@@ -2860,6 +3036,471 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">: Hold Staging and privacy reviews; UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Request QA for sprint 56</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete call center guide updates</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt; You can update the existing profile call center guide and just add a section to it for notification preferences</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: N/A 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependent's user roles research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Planning and recruiting
+  - Not sure yet whether this will be Liz or Tressa. Figure out who should work on this based on bandwidth and other project work.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974
+  - If Liz needs to do the dependent's user roles research, we will have to move the general auth experience research back by a couple of sprints</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependent's user roles research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct research and summarize findings</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Not sure yet whether this will be Liz or Tressa. Figure out who should work on this based on bandwidth and other project work.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Liz's research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete synthesis + present to team #24977
+  - If Liz needs to do the dependent's user roles research, we will have to move the general auth experience research back by a couple of sprints</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dependents user roles research**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If Liz does this work. Other work may need to move around accordingly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dependents user roles research**
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If Tressa does this work. Other work may need to move around accordingly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for research; Start research if time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue or finish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">: 
 </t>
     </r>
@@ -2882,51 +3523,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Conduct UAT
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Design test and conduct research (depending on if this is possible based on what method)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: UAT fixes</t>
+      <t>: Run/finish research; Summarize research; If time, update designs and frontend documentation as necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If not already done, finish build and implement changes from research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If needed, update designs and frontend documentation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If needed, implement updates from research</t>
     </r>
   </si>
   <si>
@@ -2993,7 +3650,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Conduct research if not done; if done, write up research and share recommendations
+      <t xml:space="preserve">: Plan for and recruit for research Conduct research if not done; if done, write up research and share recommendations
 </t>
     </r>
     <r>
@@ -3038,7 +3695,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
+      <t xml:space="preserve">: Monitor launch to 50%, 100%
 </t>
     </r>
     <r>
@@ -3060,7 +3717,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: No tasks for redesign work.
+      <t xml:space="preserve">:   
   - </t>
     </r>
     <r>
@@ -3082,7 +3739,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Discovery: how can we better elevate action items?; Begin exploration of elevating action items
+      <t xml:space="preserve">: Conduct research; Summarize research
 </t>
     </r>
     <r>
@@ -3104,23 +3761,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: QA fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp recruit and run research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
+      <t>: Launch to 50%; 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT go/no-go
 </t>
     </r>
     <r>
@@ -3142,45 +3806,95 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technical discovery; Break down tickets for build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Continue or finish build
-PM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; Submit ticket for analytics review (VSP); Request QA for Sprint 52
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tressa out 6/10 - 6/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attend UAT go/no-go; UAT recruiting** Don't schedule sessions until Tressa is back from leave
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Work on explorations; Finish them if time; discuss with team if time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes, if still needed; Staging review fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
 </t>
     </r>
     <r>
@@ -3202,426 +3916,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Finalize test cases</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for and run research</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue or finish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:Refine the plan we've started, start grabbing screenshots #24973</t>
-    </r>
-  </si>
-  <si>
-    <t>Auth exp. research project</t>
-  </si>
-  <si>
-    <t>Taylor Mitchell</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Sprint 58 (9/22 - 10/5)</t>
-  </si>
-  <si>
-    <t>Sprint 59 (10/6 - 10/19)</t>
-  </si>
-  <si>
-    <t>Sprint 60 (10/20 - 11/2)</t>
-  </si>
-  <si>
-    <t>Sprint 61 (11/3- 11/16)</t>
-  </si>
-  <si>
-    <t>Sprint 62 (11/17 - 11/30)</t>
-  </si>
-  <si>
-    <t>Sprint 63 (12/1 - 12/14)</t>
-  </si>
-  <si>
-    <t>Sprint 64 (12/15 - 12/28)</t>
-  </si>
-  <si>
-    <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold Staging and privacy reviews; UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Summarize research; Update frontend documentation as necessary</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: If not already done, finish build and implement changes from research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Request QA for sprint 56</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Complete call center guide updates</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; You can update the existing profile call center guide and just add a section to it for notification preferences</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: N/A 
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tressa's out until 6/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conduct UAT
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: If explorations weren't finished in previous sprint, finish those and discuss with team; Determine method for testing
 </t>
     </r>
     <r>
@@ -3643,192 +3981,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
-FE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> If needed, implement updates from research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dependent's user roles research</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Planning and recruiting
-  - Not sure yet whether this will be Liz or Tressa. Figure out who should work on this based on bandwidth and other project work.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Liz's research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974
-  - If Liz needs to do the dependent's user roles research, we will have to move the general auth experience research back by a couple of sprints</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dependent's user roles research</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Conduct research and summarize findings</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  - Not sure yet whether this will be Liz or Tressa. Figure out who should work on this based on bandwidth and other project work.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Liz's research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Complete synthesis + present to team #24977
-  - If Liz needs to do the dependent's user roles research, we will have to move the general auth experience research back by a couple of sprints</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dependents user roles research**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If Liz does this work. Other work may need to move around accordingly.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dependents user roles research**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If Tressa does this work. Other work may need to move around accordingly.</t>
+      <t>: UAT fixes</t>
     </r>
   </si>
 </sst>
@@ -4348,7 +4501,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4439,57 +4592,57 @@
         <v>12</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>93</v>
@@ -4533,7 +4686,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4609,7 +4762,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4618,15 +4771,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4634,7 +4787,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4642,7 +4795,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4650,7 +4803,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4658,7 +4811,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
@@ -4671,15 +4824,15 @@
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>112</v>
@@ -4687,7 +4840,7 @@
     </row>
     <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>113</v>
@@ -4695,7 +4848,7 @@
     </row>
     <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>114</v>
@@ -4703,7 +4856,7 @@
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>109</v>
@@ -4711,12 +4864,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4813,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4829,7 +4982,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4910,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE076FF-0B22-A84F-8599-AF8EA0155036}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4941,7 +5094,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,7 +5102,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4957,7 +5110,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -4965,7 +5118,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4973,7 +5126,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,9 +5164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -5114,9 +5267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="100" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B5" s="26">
         <v>0</v>
@@ -5128,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="26">
         <v>0.5</v>
       </c>
       <c r="G5" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="26">
         <v>0</v>
@@ -5226,7 +5379,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" s="26">
         <v>0</v>
@@ -5296,7 +5449,7 @@
     </row>
     <row r="12" spans="1:11" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B12" s="26">
         <v>0</v>
@@ -5308,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="26">
         <v>0.5</v>
       </c>
       <c r="G12" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="26">
         <v>0</v>
@@ -5482,7 +5635,7 @@
     </row>
     <row r="20" spans="1:11" s="24" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8498F5-70AF-1A43-B945-E1E6C21E34B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19494F6-F0A0-0343-840A-F043F86ECAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="460" windowWidth="22180" windowHeight="14500" activeTab="2" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="148">
   <si>
     <t>PM</t>
   </si>
@@ -1493,7 +1493,590 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>QA</t>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 25%/50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 25%/50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Flip switch to 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q3/Q4/2021</t>
+  </si>
+  <si>
+    <t>Tressa Furner</t>
+  </si>
+  <si>
+    <t>Liz Lantz</t>
+  </si>
+  <si>
+    <t>Erik Hansen</t>
+  </si>
+  <si>
+    <t>Lihan Li</t>
+  </si>
+  <si>
+    <t>Notification preferences</t>
+  </si>
+  <si>
+    <t>Preferred facility</t>
+  </si>
+  <si>
+    <t>General profile updates</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>User roles &amp; permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My VA </t>
+  </si>
+  <si>
+    <t>Auth exp. research project</t>
+  </si>
+  <si>
+    <t>Taylor Mitchell</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Sprint 58 (9/22 - 10/5)</t>
+  </si>
+  <si>
+    <t>Sprint 59 (10/6 - 10/19)</t>
+  </si>
+  <si>
+    <t>Sprint 60 (10/20 - 11/2)</t>
+  </si>
+  <si>
+    <t>Sprint 61 (11/3- 11/16)</t>
+  </si>
+  <si>
+    <t>Sprint 62 (11/17 - 11/30)</t>
+  </si>
+  <si>
+    <t>Sprint 63 (12/1 - 12/14)</t>
+  </si>
+  <si>
+    <t>Sprint 64 (12/15 - 12/28)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: No tasks for redesign work.
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Discovery: how can we better elevate action items
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tressa's out until 6/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conduct UAT; Create tickets if there are issues
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish explorations and discuss with team; Determine method for testing; Plan research
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: UAT fixes if necessary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%, 50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Recruit for research; Conduct research 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to 25%; Launch to 50%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Monitor launch to 100%; Reach out to Leslie Byford and let her know launch is complete
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:   
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Summarize research
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch to  100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continued monitoring of analytics; Submit for full accessibility review; Talk to Kevin about whether we should start scoping out action items MVP based on Tressa's research (he may need to be involved in this)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Post-launch checkin with VSP; Action items MVP tasks TBD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
+</t>
     </r>
     <r>
       <rPr>
@@ -1525,7 +2108,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Start prep for staging and privacy reviews
+      <t xml:space="preserve">: 
 </t>
     </r>
     <r>
@@ -1547,52 +2130,540 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hold QA and create tickets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE: F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ixes from QA; Accessibiility tests for staging review</t>
-    </r>
+      <t>: Run/finish research; Summarize research; If time, update designs and frontend documentation as necessary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue build; implement changes from research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Research prep
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Check in with VA Profile on progress; Put test cases together; Prep for midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with AJ to put together test cases; Research plan and convo guide</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp recruit and run research
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VAOS &amp; Auth exp summarize research; FE starts build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Hold Midpoint review?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Work with Peter on research summary; Update designs as needed; Update FE documentation as needed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical discovery; Break down tickets for build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start build
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Finalize test cases</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Continue build or finish build
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Submit ticket for analytics review (VSP); Request QA for Sprint 53; Submit for contact center review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update profile documentation for contact center guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue build or FInish build</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Finish build if not done
+** Note on QA**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA go/no-go (Assuming completed build); Thoroughly review build</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attend QA go/no-go; Thoroughly review build
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FInish build if not done; Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's auth experience research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Refine the plan we've started, start grabbing screenshots #24973</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's auth experience research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz's auth experience research project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Complete synthesis + present to team #24977</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz: Dependent's user roles research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Planning and recruiting</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liz: Dependent's user roles research</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct research and summarize findings</t>
+    </r>
+  </si>
+  <si>
+    <t>Dependents user roles research</t>
   </si>
   <si>
     <r>
@@ -1614,7 +2685,140 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Launch go/no-go</t>
+      <t xml:space="preserve">: UAT go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tressa out 6/10 - 6/17 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attend UAT go/no-go; UAT recruiting** Don't schedule sessions until Tressa is back from leave
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Continue comparative analysis and other discovery tasks; Begin exploration of elevating action items
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Any outstanding fixes if still needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frontend build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review</t>
     </r>
     <r>
       <rPr>
@@ -1636,7 +2840,84 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Hold UAT
+      <t>: ; Attend midpoint review; Any required updates coming out of the midpoint review; Recruit for research; Start research if time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend midpoint review; Start build; additional ticket creation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ON HOLD UNTIL VA PROFILE BACKEND IS READY FOR US TO QA
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If needed, update designs and frontend documentation</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Finish build; implement changes from research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QA go/no-go
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
+Design: N/A 
 </t>
     </r>
     <r>
@@ -1658,7 +2939,182 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Fixes from UAT</t>
+      <t xml:space="preserve">: Attend QA go/no-go
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ON HOLD UNTIL VA PROFILE BACKEND IS READY FOR US TO QA
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Request QA for sprint 54 --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ONLY DO THIS IF FRONTEND AND VA PROFILE ARE READY FOR QA; Otherwise, postpone QA and continue with whatever other tasks you can.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Complete call center guide updates --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can update the existing profile call center guide and just add a section to it for notification preferences</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Coordinate end-to-end testing with VA Profile, VEText, and VANotify
+Assuming end-to-end testing between all systems goes well, you can move on to the following:
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hold Staging and privacy reviews; UAT go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recruit for UAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fixes from staging and privacy reviews, if necessary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from staging and privacy reviews, if necessary</t>
     </r>
   </si>
   <si>
@@ -1681,207 +3137,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Monitor launch to 25%/50%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 25%/50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 100%</t>
-    </r>
-  </si>
-  <si>
-    <t>Q2 2021</t>
-  </si>
-  <si>
-    <t>Q3 2021</t>
-  </si>
-  <si>
-    <t>Q3/Q4/2021</t>
-  </si>
-  <si>
-    <t>Tressa Furner</t>
-  </si>
-  <si>
-    <t>Liz Lantz</t>
-  </si>
-  <si>
-    <t>Erik Hansen</t>
-  </si>
-  <si>
-    <t>Lihan Li</t>
-  </si>
-  <si>
-    <t>Notification preferences</t>
-  </si>
-  <si>
-    <t>Preferred facility</t>
-  </si>
-  <si>
-    <t>General profile updates</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>User roles &amp; permissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My VA </t>
-  </si>
-  <si>
-    <t>Auth exp. research project</t>
-  </si>
-  <si>
-    <t>Taylor Mitchell</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Sprint 58 (9/22 - 10/5)</t>
-  </si>
-  <si>
-    <t>Sprint 59 (10/6 - 10/19)</t>
-  </si>
-  <si>
-    <t>Sprint 60 (10/20 - 11/2)</t>
-  </si>
-  <si>
-    <t>Sprint 61 (11/3- 11/16)</t>
-  </si>
-  <si>
-    <t>Sprint 62 (11/17 - 11/30)</t>
-  </si>
-  <si>
-    <t>Sprint 63 (12/1 - 12/14)</t>
-  </si>
-  <si>
-    <t>Sprint 64 (12/15 - 12/28)</t>
-  </si>
-  <si>
-    <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold Staging and privacy reviews; UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Request QA for sprint 56</t>
+      <t>: Launch go/no-go</t>
     </r>
     <r>
       <rPr>
@@ -1903,31 +3159,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Complete call center guide updates</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --&gt; You can update the existing profile call center guide and just add a section to it for notification preferences</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA go/no-go</t>
+      <t xml:space="preserve">: Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fixes from UAT, if needed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from UAT, if needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
     </r>
     <r>
       <rPr>
@@ -1959,7 +3248,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
+      <t xml:space="preserve">: Start prep for staging and privacy reviews
 </t>
     </r>
     <r>
@@ -1981,29 +3270,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: N/A 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Attend QA go/no-go
+      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold QA and create tickets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE: F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ixes from QA; Accessibiility tests for staging review
 </t>
     </r>
     <r>
@@ -2025,1268 +3336,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold staging review; Submit privacy and security ticket; Meet with comms (Leslie Byford); Hold UAT go/no-go if dependencies allow
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: No tasks for redesign work.
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Discovery: how can we better elevate action items
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA fixes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tressa's out until 6/17 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conduct UAT; Create tickets if there are issues
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish explorations and discuss with team; Determine method for testing; Plan research
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: UAT fixes if necessary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%, 50%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Recruit for research; Conduct research 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to 25%; Launch to 50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%; Reach out to Leslie Byford and let her know launch is complete
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:   
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Summarize research
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch to  100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continued monitoring of analytics; Submit for full accessibility review; Talk to Kevin about whether we should start scoping out action items MVP based on Tressa's research (he may need to be involved in this)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Post-launch checkin with VSP; Action items MVP tasks TBD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Frontend build/Conduct research &amp; summarize
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Run/finish research; Summarize research; If time, update designs and frontend documentation as necessary</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue build; implement changes from research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ON HOLD BASED ON VANOTIFY'S INTEGRATION ESTIMATE
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: If needed, update designs and frontend documentation</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Finish build; implement changes from research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Research prep
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Check in with VA Profile on progress; Put test cases together; Prep for midpoint review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with AJ to put together test cases; Research plan and convo guide</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp recruit and run research
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Prep for Midpoint review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with Peter to recruit and run research; Update FE documentation if there were copy changes as a result of review with content and IA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VAOS &amp; Auth exp summarize research; FE starts build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Coordinate on ticketing and to-dos with Lauren Ernest; Hold Midpoint review?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Work with Peter on research summary; Update designs as needed; Update FE documentation as needed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Technical discovery; Break down tickets for build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Start build
-PM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Continued coordination with VAOS team; Finalize test cases; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finalize test cases</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Start build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Continue build or finish build
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Submit ticket for analytics review (VSP); Request QA for Sprint 53; Submit for contact center review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Update profile documentation for contact center guide
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue build or FInish build</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Finish build if not done
-** Note on QA**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It might help to have our QA around the same time as the VAOS QA simply so that doesn't hold up our/their progress moving towards launch. But this is optional and you should coordinate with Lauren on this.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA go/no-go (Assuming completed build); Thoroughly review build</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Attend QA go/no-go; Thoroughly review build
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FInish build if not done; Attend QA go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's auth experience research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Refine the plan we've started, start grabbing screenshots #24973</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's auth experience research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Wrap up screenshots, do any supplemental reading needed to answer questions, start synthesis #24974</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz's auth experience research project</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Complete synthesis + present to team #24977</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz: Dependent's user roles research</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Planning and recruiting</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liz: Dependent's user roles research</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Conduct research and summarize findings</t>
-    </r>
-  </si>
-  <si>
-    <t>Dependents user roles research</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tressa out 6/10 - 6/17 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Attend UAT go/no-go; UAT recruiting** Don't schedule sessions until Tressa is back from leave
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Continue comparative analysis and other discovery tasks; Begin exploration of elevating action items
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Any outstanding fixes if still needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Frontend build</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: ; Attend midpoint review; Any required updates coming out of the midpoint review; Recruit for research; Start research if time</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Attend midpoint review; Start build; additional ticket creation</t>
+      <t>: Fixes from QA, if needed</t>
     </r>
   </si>
 </sst>
@@ -3795,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3855,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="136" x14ac:dyDescent="0.2">
@@ -3863,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -3871,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3879,7 +3929,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -3887,7 +3937,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3895,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3903,7 +3953,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3918,12 +3968,12 @@
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3940,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4009,7 +4059,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4017,7 +4067,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4026,7 +4076,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4034,97 +4084,94 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4155,7 +4202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4221,7 +4268,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4229,7 +4276,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4237,7 +4284,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4246,7 +4293,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4255,7 +4302,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -4305,7 +4352,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -4314,18 +4361,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,7 +4423,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4384,7 +4431,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4392,7 +4439,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4400,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4408,7 +4455,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4416,7 +4463,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4424,7 +4471,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,94 +4492,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.1640625" style="16" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="16"/>
+    <col min="2" max="2" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>101</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="24">
         <v>0.7</v>
       </c>
-      <c r="C4" s="24">
+      <c r="D4" s="24">
         <v>0.5</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.7</v>
       </c>
       <c r="E4" s="24">
         <v>0.5</v>
       </c>
       <c r="F4" s="24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="24">
         <v>0</v>
@@ -4546,39 +4590,36 @@
       <c r="J4" s="24">
         <v>0</v>
       </c>
-      <c r="K4" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="24">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C7" s="24">
         <v>0.4</v>
       </c>
       <c r="D7" s="24">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="24">
         <v>0.3</v>
       </c>
       <c r="F7" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="24">
         <v>0.3</v>
       </c>
-      <c r="G7" s="24">
-        <v>0.1</v>
-      </c>
       <c r="H7" s="24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="24">
         <v>0</v>
@@ -4586,34 +4627,31 @@
       <c r="J7" s="24">
         <v>0</v>
       </c>
-      <c r="K7" s="24">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="24">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0.3</v>
       </c>
       <c r="I8" s="24">
         <v>0</v>
@@ -4621,13 +4659,10 @@
       <c r="J8" s="24">
         <v>0</v>
       </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="24">
         <v>0</v>
@@ -4645,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H9" s="24">
         <v>0.2</v>
@@ -4654,15 +4689,12 @@
         <v>0.2</v>
       </c>
       <c r="J9" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B10" s="24">
         <v>0</v>
@@ -4674,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="24">
         <v>0.5</v>
       </c>
       <c r="G10" s="24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="24">
         <v>0</v>
@@ -4691,53 +4723,47 @@
       <c r="J10" s="24">
         <v>0</v>
       </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="C11" s="24">
         <v>0.1</v>
       </c>
+      <c r="C11" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="B14" s="24">
         <v>0.2</v>
@@ -4746,13 +4772,13 @@
         <v>0.2</v>
       </c>
       <c r="D14" s="24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="24">
         <v>0.1</v>
       </c>
       <c r="F14" s="24">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="24">
         <v>0</v>
@@ -4766,51 +4792,45 @@
       <c r="J14" s="24">
         <v>0</v>
       </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="24">
         <v>0.4</v>
       </c>
-      <c r="C15" s="24">
-        <v>0.6</v>
-      </c>
       <c r="D15" s="24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="24">
         <v>0.2</v>
       </c>
       <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
         <v>0.2</v>
       </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
       <c r="H15" s="24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I15" s="24">
         <v>0.1</v>
       </c>
       <c r="J15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="24">
         <v>0.1</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="24">
-        <v>0.2</v>
       </c>
       <c r="C16" s="24">
         <v>0.1</v>
@@ -4834,136 +4854,123 @@
         <v>0.1</v>
       </c>
       <c r="J16" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="24">
         <v>0</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>110</v>
+      <c r="C17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="24">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C20" s="24">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D20" s="24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="24">
         <v>0.2</v>
       </c>
       <c r="F20" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="24">
         <v>0.2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="H20" s="24">
         <v>0.1</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0.2</v>
       </c>
       <c r="I20" s="24">
         <v>0.1</v>
       </c>
       <c r="J20" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="24">
-        <v>0</v>
-      </c>
-      <c r="C21" s="24">
         <v>0.15</v>
       </c>
+      <c r="C21" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="D21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="24">
         <v>0.05</v>
@@ -4990,15 +4997,12 @@
         <v>0.05</v>
       </c>
       <c r="J24" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="K24" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="24">
         <v>0.05</v>
@@ -5025,45 +5029,39 @@
         <v>0.05</v>
       </c>
       <c r="J25" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="K25" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B26" s="24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19494F6-F0A0-0343-840A-F043F86ECAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C949B8-C23A-BB45-93EE-E2F3C4831773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25560" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="148">
   <si>
     <t>PM</t>
   </si>
@@ -1751,116 +1751,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tressa's out until 6/17 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conduct UAT; Create tickets if there are issues
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish explorations and discuss with team; Determine method for testing; Plan research
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: UAT fixes if necessary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">: Launch go/no go; Monitor launch to 25%, 50%
 </t>
     </r>
@@ -3337,6 +3227,160 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Fixes from QA, if needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Make sure analytics are set up correctly.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tressa's out until 6/16 - 6/18; back 6/21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conduct UAT; Create tickets if there are issues
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish explorations and discuss with team; Determine method for testing; Plan research
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Erik out 6/21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UAT fixes if necessary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stretch goals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+If there are no fixes or anything needed from UAT, and if all analytics tracking is in place, feel free to hold the launch go/no-go and launch to 25% as soon as UAT is over!! If not, do that next sprint.</t>
     </r>
   </si>
 </sst>
@@ -3845,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3913,15 +3957,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3929,7 +3973,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -3937,7 +3981,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -3945,7 +3989,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -3953,7 +3997,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3990,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4059,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4067,7 +4111,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -4076,7 +4120,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4084,7 +4128,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="136" x14ac:dyDescent="0.2">
@@ -4092,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4100,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
@@ -4108,7 +4152,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="170" x14ac:dyDescent="0.2">
@@ -4116,7 +4160,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4124,7 +4168,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -4202,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B04419A-5BB9-0943-AE4B-1F8D5BA48C5B}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4268,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -4276,7 +4320,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -4284,7 +4328,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -4293,7 +4337,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -4302,7 +4346,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -4439,7 +4483,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -4447,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4455,7 +4499,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4463,7 +4507,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -4471,7 +4515,7 @@
         <v>77</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4492,88 +4536,84 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5168B9E9-78F7-3143-9D7C-EC2B0BF3AEB9}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.1640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="16"/>
+    <col min="2" max="6" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>99</v>
       </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
         <v>0.5</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.7</v>
       </c>
       <c r="D4" s="24">
         <v>0.5</v>
       </c>
       <c r="E4" s="24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="24">
         <v>0</v>
@@ -4587,36 +4627,33 @@
       <c r="I4" s="24">
         <v>0</v>
       </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="24">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="24">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="24">
         <v>0.3</v>
       </c>
       <c r="E7" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="24">
         <v>0.3</v>
       </c>
-      <c r="F7" s="24">
-        <v>0.1</v>
-      </c>
       <c r="G7" s="24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="24">
         <v>0</v>
@@ -4624,31 +4661,28 @@
       <c r="I7" s="24">
         <v>0</v>
       </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B8" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="24">
         <v>0.3</v>
       </c>
-      <c r="C8" s="24">
+      <c r="E8" s="24">
         <v>0.1</v>
       </c>
-      <c r="D8" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="F8" s="24">
         <v>0.3</v>
       </c>
-      <c r="F8" s="24">
-        <v>0.1</v>
-      </c>
       <c r="G8" s="24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="24">
         <v>0</v>
@@ -4656,11 +4690,8 @@
       <c r="I8" s="24">
         <v>0</v>
       </c>
-      <c r="J8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>111</v>
       </c>
@@ -4677,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="24">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="24">
         <v>0.2</v>
@@ -4686,15 +4717,12 @@
         <v>0.2</v>
       </c>
       <c r="I9" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="J9" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="24">
         <v>0</v>
@@ -4703,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="24">
         <v>0.5</v>
       </c>
       <c r="F10" s="24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="24">
         <v>0</v>
@@ -4720,11 +4748,8 @@
       <c r="I10" s="24">
         <v>0</v>
       </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>107</v>
       </c>
@@ -4752,16 +4777,13 @@
       <c r="I11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>110</v>
       </c>
@@ -4769,13 +4791,13 @@
         <v>0.2</v>
       </c>
       <c r="C14" s="24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D14" s="24">
         <v>0.1</v>
       </c>
       <c r="E14" s="24">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="24">
         <v>0</v>
@@ -4789,11 +4811,8 @@
       <c r="I14" s="24">
         <v>0</v>
       </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>105</v>
       </c>
@@ -4801,31 +4820,28 @@
         <v>0.6</v>
       </c>
       <c r="C15" s="24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="24">
         <v>0.2</v>
       </c>
       <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
         <v>0.2</v>
       </c>
-      <c r="F15" s="24">
-        <v>0</v>
-      </c>
       <c r="G15" s="24">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="24">
         <v>0.1</v>
       </c>
       <c r="I15" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>106</v>
       </c>
@@ -4851,20 +4867,17 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="24">
-        <v>0</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -4885,58 +4898,51 @@
       <c r="I17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B20" s="24">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C20" s="24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="24">
         <v>0.2</v>
       </c>
       <c r="E20" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="24">
         <v>0.2</v>
       </c>
-      <c r="F20" s="24">
+      <c r="G20" s="24">
         <v>0.1</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0.2</v>
       </c>
       <c r="H20" s="24">
         <v>0.1</v>
       </c>
       <c r="I20" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="24">
-        <v>0.15</v>
+      <c r="B21" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>108</v>
@@ -4959,16 +4965,13 @@
       <c r="I21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" s="22" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>105</v>
       </c>
@@ -4994,13 +4997,10 @@
         <v>0.05</v>
       </c>
       <c r="I24" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="J24" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>106</v>
       </c>
@@ -5026,18 +5026,15 @@
         <v>0.05</v>
       </c>
       <c r="I25" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="J25" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="24">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>108</v>
@@ -5058,9 +5055,6 @@
         <v>108</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="16" t="s">
         <v>108</v>
       </c>
     </row>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacostraus/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C949B8-C23A-BB45-93EE-E2F3C4831773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20203F5C-CCF0-E340-A298-5B636B2F3C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25560" windowHeight="14500" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14500" activeTab="1" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -2757,7 +2757,384 @@
   </si>
   <si>
     <r>
-      <t>ON HOLD UNTIL VA PROFILE BACKEND IS READY FOR US TO QA
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold UAT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fixes from UAT, if needed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from UAT, if needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start prep for staging and privacy reviews
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hold QA and create tickets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE: F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ixes from QA; Accessibiility tests for staging review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Fixes from QA, if needed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Make sure analytics are set up correctly.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tressa's out until 6/16 - 6/18; back 6/21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Conduct UAT; Create tickets if there are issues
+  - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Action items work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish explorations and discuss with team; Determine method for testing; Plan research
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Erik out 6/21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UAT fixes if necessary
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stretch goals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+If there are no fixes or anything needed from UAT, and if all analytics tracking is in place, feel free to hold the launch go/no-go and launch to 25% as soon as UAT is over!! If not, do that next sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+PM: Request QA for sprint 53 --&gt; ONLY DO THIS IF FRONTEND AND VA PROFILE ARE READY FOR QA; Otherwise, postpone QA and continue with whatever other tasks you can.
 Design</t>
     </r>
     <r>
@@ -2795,19 +3172,87 @@
   </si>
   <si>
     <r>
-      <t>QA go/no-go
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: QA go/no-go; Submit ticket for analytics review; Submit for contact center review
-Design: N/A 
+      <t xml:space="preserve">
+QA go/no-go
+PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA go/no-go; Submit ticket for analytics review; Submit for contact center review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design: Complete call center guide updates --&gt; You can update the existing profile call center guide and just add a section to it for notification preferences 
+FE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attend QA go/no-go</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attend QA go/no-go</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Plan end end-to-end testing with VA Profile, VEText, and VANotify; Hold Staging and privacy reviews; UAT go/no-go
 </t>
     </r>
     <r>
@@ -2829,7 +3274,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Attend QA go/no-go
+      <t xml:space="preserve">: Fixes from staging and privacy reviews, if necessary
 </t>
     </r>
     <r>
@@ -2851,82 +3296,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ON HOLD UNTIL VA PROFILE BACKEND IS READY FOR US TO QA
-PM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Request QA for sprint 54 --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ONLY DO THIS IF FRONTEND AND VA PROFILE ARE READY FOR QA; Otherwise, postpone QA and continue with whatever other tasks you can.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Complete call center guide updates --&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You can update the existing profile call center guide and just add a section to it for notification preferences</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Coordinate end-to-end testing with VA Profile, VEText, and VANotify
+      <t>: Fixes from staging and privacy reviews, if necessary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hold end-to-end testing
 Assuming end-to-end testing between all systems goes well, you can move on to the following:
 PM: </t>
     </r>
@@ -2938,7 +3313,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Hold Staging and privacy reviews; UAT go/no-go</t>
+      <t>Make sure end-to-end testing is completed; Hold Staging and privacy reviews; UAT go/no-go</t>
     </r>
     <r>
       <rPr>
@@ -2982,7 +3357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Fixes from staging and privacy reviews, if necessary
+      <t xml:space="preserve">: Participate in end-to-end testing as needed
 </t>
     </r>
     <r>
@@ -3004,383 +3379,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Fixes from staging and privacy reviews, if necessary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Launch go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold UAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Fixes from UAT, if needed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fixes from UAT, if needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start prep for staging and privacy reviews
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hold QA and create tickets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE: F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ixes from QA; Accessibiility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fixes from QA, if needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Make sure analytics are set up correctly.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tressa's out until 6/16 - 6/18; back 6/21 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Conduct UAT; Create tickets if there are issues
-  - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action items work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish explorations and discuss with team; Determine method for testing; Plan research
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Erik out 6/21 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UAT fixes if necessary
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stretch goals</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-If there are no fixes or anything needed from UAT, and if all analytics tracking is in place, feel free to hold the launch go/no-go and launch to 25% as soon as UAT is over!! If not, do that next sprint.</t>
+      <t>: Participate in end-to-end testing as needed</t>
     </r>
   </si>
 </sst>
@@ -3889,7 +3888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3965,7 +3964,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -4034,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4123,31 +4122,31 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="170" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4168,7 +4167,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858008F3-EDB5-48C4-B798-B8FA053A8CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73DD71B-D617-43B2-8C91-476755545A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="10100" firstSheet="2" activeTab="5" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="10100" firstSheet="3" activeTab="6" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId3"/>
     <sheet name="User roles research" sheetId="12" r:id="rId4"/>
     <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId5"/>
-    <sheet name="LT project planning" sheetId="14" r:id="rId6"/>
-    <sheet name="Planning by person" sheetId="13" r:id="rId7"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId8"/>
+    <sheet name="Bad address indicator" sheetId="15" r:id="rId6"/>
+    <sheet name="LT project planning" sheetId="14" r:id="rId7"/>
+    <sheet name="Planning by person" sheetId="13" r:id="rId8"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="158">
   <si>
     <t>PM</t>
   </si>
@@ -842,9 +843,6 @@
     <t>My VA</t>
   </si>
   <si>
-    <t>Alerts work</t>
-  </si>
-  <si>
     <t>Communications permissions/notification preferences</t>
   </si>
   <si>
@@ -1612,9 +1610,6 @@
     <t>Synthesis &amp; read-out</t>
   </si>
   <si>
-    <t>Research/FE build</t>
-  </si>
-  <si>
     <t>Research prep/FE build</t>
   </si>
   <si>
@@ -1636,16 +1631,111 @@
     <t>Potential: Health apartment updates</t>
   </si>
   <si>
-    <t>Potential: Add BVA hearing reminders to My VA</t>
-  </si>
-  <si>
     <t>Potential: Updates if new user role is added</t>
   </si>
   <si>
     <t>Payment updates</t>
   </si>
   <si>
-    <t>Potential: Add debts section if we determine payment &amp; debts should be separte</t>
+    <t>Samara to do background research</t>
+  </si>
+  <si>
+    <t>On-site notifications MVP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resume project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Figure out what we need from VANotify at this point, if anything. Maybe just some way to indicate/show in their system that a notification should go to VA.gov.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Figure out what design needs to be updated; Update design; determine if we need additional user testing or not based on updates; follow-up with collab cycle design intent issues/tickets and let them know about our pivot.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Continue backend build. When will this be done?</t>
+    </r>
+  </si>
+  <si>
+    <t>Research
+- Midpoint review
+- Finish design if not already done
+- Research planning/convo guide
+- Start FE build? Finish backend build.</t>
+  </si>
+  <si>
+    <t>Research
+- Conduc research/summarize research if needed
+- Continue/finish FE build
+- QA prep</t>
+  </si>
+  <si>
+    <t>Re-define project/Design/BE Build</t>
+  </si>
+  <si>
+    <t>Bad address indicator</t>
+  </si>
+  <si>
+    <t>Team discovery; BE discovery</t>
+  </si>
+  <si>
+    <t>Team discovery
+- Meet with VA Profile to ask about this
+- If Lihan has time with other work, look into what we have
+- Product (Samara)/Design discovery to find out what this indicator can tell us
+- MVP definition</t>
+  </si>
+  <si>
+    <t>Single on-site notification MVP (Debt notification)</t>
+  </si>
+  <si>
+    <t>Research/FE build/Start BE build</t>
   </si>
 </sst>
 </file>
@@ -2131,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2143,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2175,7 +2265,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2183,7 +2273,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -2191,7 +2281,7 @@
         <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -2199,7 +2289,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
@@ -2207,7 +2297,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="62" x14ac:dyDescent="0.35">
@@ -2215,7 +2305,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,7 +2321,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2239,7 +2329,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2247,7 +2337,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2255,7 +2345,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -2272,19 +2362,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2308,7 +2399,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="186" x14ac:dyDescent="0.35">
@@ -2316,7 +2407,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2324,27 +2415,39 @@
         <v>70</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -2352,25 +2455,40 @@
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2515,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2570,7 +2688,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2578,7 +2696,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2639,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2653,7 +2771,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2681,7 +2799,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2689,7 +2807,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
@@ -2697,7 +2815,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2705,10 +2823,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2716,7 +2834,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2724,7 +2842,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2740,7 +2858,7 @@
         <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2748,7 +2866,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2756,7 +2874,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2764,7 +2882,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2790,18 +2908,119 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FBA0B6-3842-4CC6-9381-CC4B3C8F5328}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.9140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
@@ -2810,13 +3029,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>70</v>
@@ -2862,45 +3081,45 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
         <v>132</v>
       </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
         <v>128</v>
       </c>
-      <c r="I4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>129</v>
-      </c>
-      <c r="K4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -2912,175 +3131,231 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
-      <c r="D9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>140</v>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3088,7 +3363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57995BE7-5FDF-4E2A-BC70-63E699D35C62}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -3109,7 +3384,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3118,25 +3393,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -3144,25 +3419,25 @@
         <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -3223,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3240,7 +3515,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,20 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73DD71B-D617-43B2-8C91-476755545A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BBDC8B-79A8-463A-AC81-1956C0432939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="10100" firstSheet="3" activeTab="6" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10100" firstSheet="2" activeTab="5" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
     <sheet name="Alerts" sheetId="11" r:id="rId2"/>
     <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId3"/>
-    <sheet name="User roles research" sheetId="12" r:id="rId4"/>
-    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId5"/>
-    <sheet name="Bad address indicator" sheetId="15" r:id="rId6"/>
-    <sheet name="LT project planning" sheetId="14" r:id="rId7"/>
-    <sheet name="Planning by person" sheetId="13" r:id="rId8"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId9"/>
+    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId4"/>
+    <sheet name="LT project planning" sheetId="14" r:id="rId5"/>
+    <sheet name="Planning by person" sheetId="13" r:id="rId6"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
   <si>
     <t>PM</t>
   </si>
@@ -242,361 +240,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Sprint 57 (9/22 - 10/5)</t>
-  </si>
-  <si>
     <t>Full 508 accessibility review</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 25%/50%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 25%/50%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Monitor launch to 100%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Flip switch to 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">QA 
-PM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA go/no-go; Submit ticket for analytics review; Submit for contact center review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design: Complete call center guide updates --&gt; You can update the existing profile call center guide and just add a section to it for notification preferences 
-QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold QA and create tickets</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attend QA go/no-go</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Attend QA go/no-go</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start prep for staging and privacy reviews; Hold reviews
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT planning; Accessibility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE: F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ixes from QA; Accessibiility tests for staging review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fixes from QA, if needed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT go/no-go; Hold UAT; Launch go/no-go
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Recruit for UAT; Hold UAT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Fixes from staging and privacy reviews, if necessary; Fxes from UAT if necessary
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Fixes from staging and privacy reviews, if necessary; Fixes from UAT if necessary</t>
-    </r>
   </si>
   <si>
     <t>Team onboards
@@ -608,9 +252,6 @@
 - Complete initial mockups</t>
   </si>
   <si>
-    <t>User roles research</t>
-  </si>
-  <si>
     <t>Sprint 58 (10/6 - 10/19)</t>
   </si>
   <si>
@@ -651,37 +292,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Scope research; previous research review; review eBenefits/MHV; Identify SMEs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Talk to Liz about where she think she'll be by the end of last sprint. If she's in good shape…</t>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Meet with VANotify</t>
     </r>
     <r>
       <rPr>
@@ -703,43 +324,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Research plan, convo guide, and reach out to SMEs to set up interviews</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Meet with VANotify</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">: Finalize MVP design; meet with VANotify; meet with IA; finalize MVP notification list.
 </t>
     </r>
@@ -946,29 +530,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Schedule Interviews; Hold as many interviews as possible</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Continue design and FE build
 </t>
     </r>
@@ -1218,29 +779,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Sit in on MPI calls</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finish interviews if needed; Research write-up and read-out</t>
     </r>
   </si>
   <si>
@@ -1266,13 +804,7 @@
     <t>Christina</t>
   </si>
   <si>
-    <t>Erik</t>
-  </si>
-  <si>
     <t>Taylor</t>
-  </si>
-  <si>
-    <t>Zach</t>
   </si>
   <si>
     <t>Lihan</t>
@@ -1367,27 +899,6 @@
     </r>
   </si>
   <si>
-    <t>User roles research;  Profile backlog</t>
-  </si>
-  <si>
-    <t>Add payment info to My VA; Discuss alerts pivot</t>
-  </si>
-  <si>
-    <t>My VA: A couple tickets in the backlog; Profile backlog</t>
-  </si>
-  <si>
-    <t>Profile backlog</t>
-  </si>
-  <si>
-    <t>Personal information updates; Profile backlog if it doesn't conflict with other projects</t>
-  </si>
-  <si>
-    <t>Hopefully get started on personal information work; If not, can support other team if we decide to not continue with VANotify integration</t>
-  </si>
-  <si>
-    <t>Personal information updates; Profile backlog in partnership with Liz</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Determine next steps
 </t>
@@ -1531,24 +1042,6 @@
       </rPr>
       <t>: Do we need any technical discovery now? I don't think so.</t>
     </r>
-  </si>
-  <si>
-    <t>Design intent
-- Design
-- Technical discovery</t>
-  </si>
-  <si>
-    <t>Research
-- Conduc research/summarize research
-- Continue build
-- QA prep</t>
-  </si>
-  <si>
-    <t>Research
-- Midpoint review
-- Finish design if not already done
-- Research planning/convo guide
-- Start build?</t>
   </si>
   <si>
     <t>Pre-launch prep</t>
@@ -1613,27 +1106,12 @@
     <t>Research prep/FE build</t>
   </si>
   <si>
-    <t>Midpoint review, Recruit for user testing, Start testing (?) continue FE build; BE build</t>
-  </si>
-  <si>
-    <t>Synthesize test results; Continue FE Build; BE build</t>
-  </si>
-  <si>
     <t>BE/FE build</t>
   </si>
   <si>
     <t>Finish build/QA</t>
   </si>
   <si>
-    <t>Potential: Unauth homepage updates</t>
-  </si>
-  <si>
-    <t>Potential: Health apartment updates</t>
-  </si>
-  <si>
-    <t>Potential: Updates if new user role is added</t>
-  </si>
-  <si>
     <t>Payment updates</t>
   </si>
   <si>
@@ -1641,66 +1119,6 @@
   </si>
   <si>
     <t>On-site notifications MVP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Resume project
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Figure out what we need from VANotify at this point, if anything. Maybe just some way to indicate/show in their system that a notification should go to VA.gov.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Figure out what design needs to be updated; Update design; determine if we need additional user testing or not based on updates; follow-up with collab cycle design intent issues/tickets and let them know about our pivot.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Continue backend build. When will this be done?</t>
-    </r>
   </si>
   <si>
     <t>Research
@@ -1719,23 +1137,370 @@
     <t>Re-define project/Design/BE Build</t>
   </si>
   <si>
-    <t>Bad address indicator</t>
-  </si>
-  <si>
-    <t>Team discovery; BE discovery</t>
-  </si>
-  <si>
-    <t>Team discovery
-- Meet with VA Profile to ask about this
-- If Lihan has time with other work, look into what we have
-- Product (Samara)/Design discovery to find out what this indicator can tell us
-- MVP definition</t>
-  </si>
-  <si>
     <t>Single on-site notification MVP (Debt notification)</t>
   </si>
   <si>
     <t>Research/FE build/Start BE build</t>
+  </si>
+  <si>
+    <t>Design intent
+- Design; Design intent
+- Technical discovery</t>
+  </si>
+  <si>
+    <t>Midpoint review, Recruit for user testing, Start testing (?) continue FE build; BE build (tickets TBD after we talk to this team on Wednesday)</t>
+  </si>
+  <si>
+    <t>Unauth homepage updates</t>
+  </si>
+  <si>
+    <t>Also have Tressa do some explorations around better elevating action items</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out; then hopefully can start on MPI work if possible; otherwise, on hold with all work </t>
+  </si>
+  <si>
+    <t>Research recruiting; out most of the sprint; needs more work</t>
+  </si>
+  <si>
+    <t>Start transition to take over My VA work; out most of sprint but needs something</t>
+  </si>
+  <si>
+    <t>Continue BE build</t>
+  </si>
+  <si>
+    <t>Finish BE build</t>
+  </si>
+  <si>
+    <t>Recruit for testing if possible
+- Recruit for testing if contract is back
+- Continue whatever is left of the frontend build</t>
+  </si>
+  <si>
+    <t>Project on hold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Resume project
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-  Define needs for VANotify, determine what they need to do, and determine timeline for any work they need to do.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Figure out what design needs to be updated; Update design; determine if we need additional user testing or not based on updates; follow-up with collab cycle design intent issues/tickets and let them know about our pivot.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Determine next steps for backend build; If possible, Tom can start to implement build if possible</t>
+    </r>
+  </si>
+  <si>
+    <t>My VA payments work; On-site alerts updates, if applicable</t>
+  </si>
+  <si>
+    <t>Onboarding; Can we start him on the VANotify integration? Andre should assign him to help another team</t>
+  </si>
+  <si>
+    <t>Research/midpoint review planning
+- Midpoint review planning, including starting to put together list of test cases
+- Finish design if not already done
+- Technical discovery</t>
+  </si>
+  <si>
+    <t>Continue build
+- Recruit/Start conducting research
+- Continue build</t>
+  </si>
+  <si>
+    <t>Finish build
+- Finish conducting research
+- Research summary
+- QA prep
+- Finish build</t>
+  </si>
+  <si>
+    <t>QA
+- Contact center guides
+- QA</t>
+  </si>
+  <si>
+    <t>Hold midpoint review</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Start build
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Determine VANotify's timeline based on availability; Determine QA/testing strategy -- talk to Leah/Denise/Maria about this; Midpoint review prep (note: testing for this is going to happen as part of payment info testing)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Research prep is happening as part of payment info
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start FE build if possible
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Lihan to meet with VANotify to determine how the backend should receive data from VANotify; Start build</t>
+    </r>
+  </si>
+  <si>
+    <t>Resume project: complete design</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Sprint 71 (4/6 - 4/19)</t>
+  </si>
+  <si>
+    <t>Sprint 72 (4/20 - 5/3)</t>
+  </si>
+  <si>
+    <t>Personal info research</t>
+  </si>
+  <si>
+    <t>Tressa's last sprint; Research planning for payment info</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Research
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conduct research; Synthesize test results
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Continue FE Build
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  Start BE build</t>
+    </r>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>View Payments technical discovery</t>
+  </si>
+  <si>
+    <t>Resolve direct deposit issues; On-site notifications build</t>
+  </si>
+  <si>
+    <t>Resolve direct deposit issues; Personal info build</t>
+  </si>
+  <si>
+    <t>Midpoint review; Research planning
+- Hold midpoint review
+- Research planning/convo guide/ recruit; If not done, finish design on how to handle "benefits you might be interested in"; if done, create FE tickets
+- Start build</t>
+  </si>
+  <si>
+    <t>Personal info research; continue taking over My VA from Tressa; Finish "benefits you might be interested in updates" if not done</t>
+  </si>
+  <si>
+    <t>View payments build; On-site notifications MVP build; Benefits you might be interested in update</t>
   </si>
 </sst>
 </file>
@@ -2219,24 +1984,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B15"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -2244,108 +2010,117 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="93" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="93" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="93" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -2362,20 +2137,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="92.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2388,107 +2163,117 @@
     </row>
     <row r="3" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="186" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>151</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>69</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>120</v>
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2515,7 +2300,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2530,107 +2315,67 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="14" spans="1:3" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2641,124 +2386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEEB88D-925D-4CBC-8EF5-82D9F0D013DA}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2771,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2788,118 +2420,130 @@
     </row>
     <row r="3" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2907,113 +2551,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FBA0B6-3842-4CC6-9381-CC4B3C8F5328}">
-  <dimension ref="A1:C14"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3025,52 +2568,60 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="L2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -3079,47 +2630,49 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -3130,232 +2683,160 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
         <v>147</v>
       </c>
-      <c r="C6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" t="s">
-        <v>127</v>
-      </c>
       <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="K6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,134 +2844,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57995BE7-5FDF-4E2A-BC70-63E699D35C62}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="2" max="2" width="32" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.58203125" customWidth="1"/>
-    <col min="4" max="5" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.58203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="28.9140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="32.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>104</v>
+        <v>154</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" t="s">
-        <v>109</v>
+        <v>155</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
+      <c r="G4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3498,7 +2994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3515,7 +3011,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BBDC8B-79A8-463A-AC81-1956C0432939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F0F2C-55A5-49F1-9BF7-F14A37A979AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10100" firstSheet="2" activeTab="5" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="167">
   <si>
     <t>PM</t>
   </si>
@@ -1169,9 +1169,6 @@
     <t>Start transition to take over My VA work; out most of sprint but needs something</t>
   </si>
   <si>
-    <t>Continue BE build</t>
-  </si>
-  <si>
     <t>Finish BE build</t>
   </si>
   <si>
@@ -1255,26 +1252,6 @@
 - Technical discovery</t>
   </si>
   <si>
-    <t>Continue build
-- Recruit/Start conducting research
-- Continue build</t>
-  </si>
-  <si>
-    <t>Finish build
-- Finish conducting research
-- Research summary
-- QA prep
-- Finish build</t>
-  </si>
-  <si>
-    <t>QA
-- Contact center guides
-- QA</t>
-  </si>
-  <si>
-    <t>Hold midpoint review</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Start build
 - </t>
@@ -1489,18 +1466,167 @@
   </si>
   <si>
     <t>Resolve direct deposit issues; Personal info build</t>
+  </si>
+  <si>
+    <t>Personal info research; continue taking over My VA from Tressa; Finish "benefits you might be interested in updates" if not done</t>
+  </si>
+  <si>
+    <t>View payments build; On-site notifications MVP build; Benefits you might be interested in update</t>
   </si>
   <si>
     <t>Midpoint review; Research planning
 - Hold midpoint review
 - Research planning/convo guide/ recruit; If not done, finish design on how to handle "benefits you might be interested in"; if done, create FE tickets
-- Start build</t>
-  </si>
-  <si>
-    <t>Personal info research; continue taking over My VA from Tressa; Finish "benefits you might be interested in updates" if not done</t>
-  </si>
-  <si>
-    <t>View payments build; On-site notifications MVP build; Benefits you might be interested in update</t>
+- Prototype build on payment info</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continue build
+- Request QA depending where build is at
+- Conduct and summarize research
+- Update documentation if time
+- Updates from user research (may go into the following sprint depending on updates)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Determine what, if anything, still needs to happen with FE build, and complete build</t>
+    </r>
+  </si>
+  <si>
+    <t>QA
+- QA
+- Updates from QA</t>
+  </si>
+  <si>
+    <t>Finish build
+- QA prep (maybe QA?)
+- Contact center guide; Update documentation if needed
+- Finish build</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hold midpoint review
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Midpoint review
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Research (as part of payment info work)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Is there anything that still needs to happen?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Build -- how many sprints?</t>
+    </r>
+  </si>
+  <si>
+    <t>Finish research; determine next steps with build based on VA Profile's direction
+- Summarize research
+- Any FE tasks?
+- Start BE build if possible</t>
+  </si>
+  <si>
+    <t>Rolling off team</t>
+  </si>
+  <si>
+    <t>Payment history/on-site notifications research</t>
+  </si>
+  <si>
+    <t>Personal info research summary; likely needs more work</t>
+  </si>
+  <si>
+    <t>Likely needs more work</t>
+  </si>
+  <si>
+    <t>Start on on-site notifications build, if possible</t>
+  </si>
+  <si>
+    <t>Start on personal info build, if possible</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2055,7 +2181,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>129</v>
@@ -2066,24 +2192,24 @@
         <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2091,7 +2217,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2138,7 +2264,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2198,7 +2324,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2206,7 +2332,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>121</v>
@@ -2217,18 +2343,18 @@
         <v>66</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>107</v>
@@ -2389,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2466,7 +2592,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2474,15 +2600,15 @@
         <v>66</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2490,7 +2616,7 @@
         <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2613,10 +2739,10 @@
         <v>72</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -2697,16 +2823,16 @@
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
         <v>103</v>
@@ -2849,7 +2975,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2891,7 +3017,7 @@
         <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>91</v>
@@ -2905,7 +3031,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>133</v>
@@ -2914,7 +3040,7 @@
         <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>110</v>
@@ -2923,7 +3049,7 @@
         <v>131</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
@@ -2931,30 +3057,51 @@
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01F0F2C-55A5-49F1-9BF7-F14A37A979AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B821E28F-D2E8-4303-B3CC-3ECBD9CA0282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10100" firstSheet="2" activeTab="5" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
     <sheet name="Alerts" sheetId="11" r:id="rId2"/>
-    <sheet name="Comms_Notification prefs" sheetId="3" r:id="rId3"/>
-    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId4"/>
-    <sheet name="LT project planning" sheetId="14" r:id="rId5"/>
-    <sheet name="Planning by person" sheetId="13" r:id="rId6"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId7"/>
+    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId3"/>
+    <sheet name="Profile_Bad address" sheetId="15" r:id="rId4"/>
+    <sheet name="Profile_Military service info" sheetId="17" r:id="rId5"/>
+    <sheet name="MHV_VA.gov profile research" sheetId="16" r:id="rId6"/>
+    <sheet name="LT project planning" sheetId="14" r:id="rId7"/>
+    <sheet name="Planning by person" sheetId="13" r:id="rId8"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
   <si>
     <t>PM</t>
   </si>
@@ -207,40 +209,7 @@
     <t>Technical discovery</t>
   </si>
   <si>
-    <t>Additional notes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Things to consider for this project/planning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-- After meeting with Terry and coming up with internal plan, we should regroup with FE to discuss.
-- Should we do InVision testing? This seems pointless if we don't have real data. We may want to start frontend build and wait until we have real content in live code to do usability testing (and then QA and the rest of the VSP checks).
-- How are we going to handle staging users? — We'll need to know exactly what notifications need to go out so we can find users that will see those.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Full 508 accessibility review</t>
   </si>
   <si>
     <t>Team onboards
@@ -427,9 +396,6 @@
     <t>My VA</t>
   </si>
   <si>
-    <t>Communications permissions/notification preferences</t>
-  </si>
-  <si>
     <t>Personal information updates (LGBTQ data)</t>
   </si>
   <si>
@@ -1482,7 +1448,6 @@
   <si>
     <r>
       <t xml:space="preserve">Continue build
-- Request QA depending where build is at
 - Conduct and summarize research
 - Update documentation if time
 - Updates from user research (may go into the following sprint depending on updates)
@@ -1506,105 +1471,6 @@
 - Updates from QA</t>
   </si>
   <si>
-    <t>Finish build
-- QA prep (maybe QA?)
-- Contact center guide; Update documentation if needed
-- Finish build</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hold midpoint review
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Midpoint review
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Research (as part of payment info work)
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Is there anything that still needs to happen?
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Build -- how many sprints?</t>
-    </r>
-  </si>
-  <si>
     <t>Finish research; determine next steps with build based on VA Profile's direction
 - Summarize research
 - Any FE tasks?
@@ -1627,6 +1493,172 @@
   </si>
   <si>
     <t>Start on personal info build, if possible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hold midpoint review
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Midpoint review
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Research (as part of payment info work)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Is there anything that still needs to happen?
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Build -- how many sprints? -- Is VANotify going away again because of contract issues?</t>
+    </r>
+  </si>
+  <si>
+    <t>Bad address indicator</t>
+  </si>
+  <si>
+    <t>PM/PO prediscovery; BE to review swagger docs</t>
+  </si>
+  <si>
+    <t>Continue BE build as necessary
+Are we on hold until VANotify can work on this?</t>
+  </si>
+  <si>
+    <t>Design: Changes from research
+FE: Work on changes from research, if changes are mocked up before the end of the sprint
+BE: Still on hold</t>
+  </si>
+  <si>
+    <t>Start design</t>
+  </si>
+  <si>
+    <t>Design: Contact center guide
+BE: Start BE build if possible</t>
+  </si>
+  <si>
+    <t>Continue PM discovery; Collab cycle kickoff; product outline</t>
+  </si>
+  <si>
+    <t>MHV/VA.gov Profile research</t>
+  </si>
+  <si>
+    <t>Talk to Lauren/Tracey/Meg</t>
+  </si>
+  <si>
+    <t>Samara: Outline rough research plan; If it seems like research can happen soon, get Chris on board.</t>
+  </si>
+  <si>
+    <t>Liz to deliver final report</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>On hold until VANotify is available</t>
+  </si>
+  <si>
+    <t>Liz to transition My VA work over to Angela
+- Start mockups of enhancement to add medical copays</t>
+  </si>
+  <si>
+    <t>Finish build
+- PM: Do we need UAT?
+- Design for any updates coming out of testing; Onboard Angela
+- Request QA depending where build is at -- Are we ready for QA?
+- Contact center guide; Update documentation if needed
+- Finish build</t>
+  </si>
+  <si>
+    <t>Sprint 73 (5/4 - 5/17)</t>
+  </si>
+  <si>
+    <t>Pre-launch prep/UAT</t>
+  </si>
+  <si>
+    <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments)</t>
+  </si>
+  <si>
+    <t>Military service info</t>
+  </si>
+  <si>
+    <t>Samara does discovery; Submits intake form; Maybe initial convos with VA Profile</t>
+  </si>
+  <si>
+    <t>Project planning; Collab cycle kickoff; product outline</t>
   </si>
 </sst>
 </file>
@@ -2112,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2125,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2138,118 +2170,129 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
     </row>
   </sheetData>
@@ -2261,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2276,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2289,117 +2332,141 @@
     </row>
     <row r="3" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="186" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>67</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2409,11 +2476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE3441-C577-AD44-89B1-3C9590DA0F6F}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2426,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2438,72 +2505,151 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="294.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="B15" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2512,11 +2658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2529,7 +2675,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2541,143 +2687,290 @@
         <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A7DF1-DF5D-4BDE-A8B9-32553A8BE824}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.9140625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -2700,54 +2993,54 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="L2" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -2758,47 +3051,47 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -2814,70 +3107,70 @@
     </row>
     <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6" t="s">
-        <v>123</v>
-      </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2885,7 +3178,7 @@
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2896,69 +3189,69 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -2970,11 +3263,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57995BE7-5FDF-4E2A-BC70-63E699D35C62}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2992,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3005,128 +3298,128 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -3141,7 +3434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3158,7 +3451,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B821E28F-D2E8-4303-B3CC-3ECBD9CA0282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7E60E-BA6C-47B2-A0DD-1A0017155D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="19100" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
   <si>
     <t>PM</t>
   </si>
@@ -936,9 +936,6 @@
     </r>
   </si>
   <si>
-    <t>My VA: Payment info updates</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Project pivot to payment information
 </t>
@@ -1026,12 +1023,6 @@
   </si>
   <si>
     <t>Profile</t>
-  </si>
-  <si>
-    <t>Discovery</t>
-  </si>
-  <si>
-    <t>Finish build</t>
   </si>
   <si>
     <t>Pre-launch</t>
@@ -1048,40 +1039,13 @@
 - Finish build</t>
   </si>
   <si>
-    <t>Design/Research prep/Build</t>
-  </si>
-  <si>
-    <t>Research/Build</t>
-  </si>
-  <si>
     <t>Personal information updates</t>
   </si>
   <si>
-    <t>Notification preferences</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>User roles &amp; permissions research</t>
-  </si>
-  <si>
-    <t>Synthesis &amp; read-out</t>
-  </si>
-  <si>
-    <t>Research prep/FE build</t>
-  </si>
-  <si>
-    <t>BE/FE build</t>
-  </si>
-  <si>
-    <t>Finish build/QA</t>
-  </si>
-  <si>
     <t>Payment updates</t>
-  </si>
-  <si>
-    <t>Samara to do background research</t>
   </si>
   <si>
     <t>On-site notifications MVP</t>
@@ -1100,13 +1064,7 @@
 - QA prep</t>
   </si>
   <si>
-    <t>Re-define project/Design/BE Build</t>
-  </si>
-  <si>
     <t>Single on-site notification MVP (Debt notification)</t>
-  </si>
-  <si>
-    <t>Research/FE build/Start BE build</t>
   </si>
   <si>
     <t>Design intent
@@ -1117,12 +1075,6 @@
     <t>Midpoint review, Recruit for user testing, Start testing (?) continue FE build; BE build (tickets TBD after we talk to this team on Wednesday)</t>
   </si>
   <si>
-    <t>Unauth homepage updates</t>
-  </si>
-  <si>
-    <t>Also have Tressa do some explorations around better elevating action items</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
@@ -1133,9 +1085,6 @@
   </si>
   <si>
     <t>Start transition to take over My VA work; out most of sprint but needs something</t>
-  </si>
-  <si>
-    <t>Finish BE build</t>
   </si>
   <si>
     <t>Recruit for testing if possible
@@ -1309,12 +1258,6 @@
       </rPr>
       <t>: Lihan to meet with VANotify to determine how the backend should receive data from VANotify; Start build</t>
     </r>
-  </si>
-  <si>
-    <t>Resume project: complete design</t>
-  </si>
-  <si>
-    <t>Build</t>
   </si>
   <si>
     <t>Sprint 71 (4/6 - 4/19)</t>
@@ -1466,11 +1409,6 @@
     </r>
   </si>
   <si>
-    <t>QA
-- QA
-- Updates from QA</t>
-  </si>
-  <si>
     <t>Finish research; determine next steps with build based on VA Profile's direction
 - Summarize research
 - Any FE tasks?
@@ -1603,16 +1541,6 @@
 BE: Still on hold</t>
   </si>
   <si>
-    <t>Start design</t>
-  </si>
-  <si>
-    <t>Design: Contact center guide
-BE: Start BE build if possible</t>
-  </si>
-  <si>
-    <t>Continue PM discovery; Collab cycle kickoff; product outline</t>
-  </si>
-  <si>
     <t>MHV/VA.gov Profile research</t>
   </si>
   <si>
@@ -1631,34 +1559,402 @@
     <t>On hold until VANotify is available</t>
   </si>
   <si>
-    <t>Liz to transition My VA work over to Angela
-- Start mockups of enhancement to add medical copays</t>
+    <t>Sprint 73 (5/4 - 5/17)</t>
+  </si>
+  <si>
+    <t>Pre-launch prep/UAT</t>
+  </si>
+  <si>
+    <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments)</t>
+  </si>
+  <si>
+    <t>Military service info</t>
+  </si>
+  <si>
+    <t>Samara does discovery; Submits intake form; Maybe initial convos with VA Profile</t>
+  </si>
+  <si>
+    <t>Project planning; Collab cycle kickoff; product outline</t>
   </si>
   <si>
     <t>Finish build
 - PM: Do we need UAT?
 - Design for any updates coming out of testing; Onboard Angela
 - Request QA depending where build is at -- Are we ready for QA?
-- Contact center guide; Update documentation if needed
+- Update documentation if needed
 - Finish build</t>
   </si>
   <si>
-    <t>Sprint 73 (5/4 - 5/17)</t>
-  </si>
-  <si>
-    <t>Pre-launch prep/UAT</t>
-  </si>
-  <si>
-    <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments)</t>
-  </si>
-  <si>
-    <t>Military service info</t>
-  </si>
-  <si>
-    <t>Samara does discovery; Submits intake form; Maybe initial convos with VA Profile</t>
-  </si>
-  <si>
-    <t>Project planning; Collab cycle kickoff; product outline</t>
+    <t>Updates from QA</t>
+  </si>
+  <si>
+    <t>Finish BE build; Contact center guide</t>
+  </si>
+  <si>
+    <t>Continue PM discovery; product outline</t>
+  </si>
+  <si>
+    <t>Collab cycle kickoff; If time allows with personal info work, start design brainstorming</t>
+  </si>
+  <si>
+    <t>Design, design intent</t>
+  </si>
+  <si>
+    <t>Still waiting to hear back from VA Profile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When will we be ready for QA?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish all design updates
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Implement design updates
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start BE build if possible; VA Profile is targeting 2/14 for being ready for us</t>
+    </r>
+  </si>
+  <si>
+    <t>QA; UAT planning</t>
+  </si>
+  <si>
+    <t>Pre-launch prep; UAT</t>
+  </si>
+  <si>
+    <t>Chris to talk to MHV and make intros</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Finish design/FE build</t>
+  </si>
+  <si>
+    <t>Finish BE build</t>
+  </si>
+  <si>
+    <t>Start BE build</t>
+  </si>
+  <si>
+    <t>Payment info updates</t>
+  </si>
+  <si>
+    <t>Medical copays</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Medical copays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- PM/Design: Have planning discussion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liz to transition My VA work over to Angela; All final updates ahead of QA
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Review QA test cases and make sure they are accurate given any updates from user testing
+- Team does informal click through of the feature to make sure it is ready for QA
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Contact center guide; maybe My VA sketch file clean up
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Error states; user testing updates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Medical copays
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Fill out collab kickoff ticket, but clarify we likely won't need more than a design review and maybe research review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Discovery; design exploration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Medical copays
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Research planning and prep -- are we doing a "mock" A/B test? Getting feedback during payment UAT? Both?</t>
+    </r>
+  </si>
+  <si>
+    <t>Research?</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Sprint 74 (5/18 - 5/31)</t>
+  </si>
+  <si>
+    <t>QA
+- PM: Analytics request (Look at what we set for KPIs to give Heather details on what she should include in this request; add yo exisiting My VA dashboard)
+- QA (doesn't need to be day 1 of the sprint)
+- UAT planning</t>
+  </si>
+  <si>
+    <t>QA if needed; Analytics request; Pre-launch reviews</t>
+  </si>
+  <si>
+    <t>Pre-launch reviews</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +2031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1766,12 +2062,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1786,7 +2076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1826,7 +2116,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2142,22 +2431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2165,7 +2454,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>6</v>
+        <v>173</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2175,6 +2467,9 @@
       <c r="B3" t="s">
         <v>71</v>
       </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -2183,6 +2478,9 @@
       <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2191,13 +2489,19 @@
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2205,7 +2509,10 @@
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2213,10 +2520,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2224,16 +2531,21 @@
         <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="124" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="124" x14ac:dyDescent="0.35">
@@ -2241,31 +2553,43 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>92</v>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2273,27 +2597,52 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2307,7 +2656,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2319,7 +2668,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -2367,7 +2716,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2375,10 +2724,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2386,10 +2735,10 @@
         <v>63</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2397,10 +2746,10 @@
         <v>64</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2408,7 +2757,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2416,7 +2765,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2424,7 +2773,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2432,7 +2781,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2445,28 +2794,28 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2829,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2545,7 +2894,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -2556,7 +2905,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2564,7 +2913,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2572,7 +2921,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2580,15 +2929,15 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2596,7 +2945,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2604,7 +2953,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2612,31 +2961,31 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2661,7 +3010,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2675,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2690,116 +3146,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2807,13 +3159,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2827,17 +3182,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -2862,7 +3217,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2874,7 +3229,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -2894,7 +3249,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -2902,23 +3257,23 @@
         <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2926,7 +3281,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2934,20 +3289,24 @@
         <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
@@ -2972,290 +3331,175 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="21.08203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="D10" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:13" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="E10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3310,13 +3554,13 @@
         <v>86</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
@@ -3324,25 +3568,25 @@
         <v>62</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
@@ -3350,25 +3594,25 @@
         <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
@@ -3376,25 +3620,25 @@
         <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7E60E-BA6C-47B2-A0DD-1A0017155D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3122092-34D8-442B-A276-E40E7D277120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="19100" windowHeight="10100" tabRatio="816" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="19100" windowHeight="10100" tabRatio="816" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>PM</t>
   </si>
@@ -1565,9 +1565,6 @@
     <t>Pre-launch prep/UAT</t>
   </si>
   <si>
-    <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments)</t>
-  </si>
-  <si>
     <t>Military service info</t>
   </si>
   <si>
@@ -1588,16 +1585,10 @@
     <t>Updates from QA</t>
   </si>
   <si>
-    <t>Finish BE build; Contact center guide</t>
-  </si>
-  <si>
     <t>Continue PM discovery; product outline</t>
   </si>
   <si>
     <t>Collab cycle kickoff; If time allows with personal info work, start design brainstorming</t>
-  </si>
-  <si>
-    <t>Design, design intent</t>
   </si>
   <si>
     <t>Still waiting to hear back from VA Profile</t>
@@ -1955,6 +1946,185 @@
   </si>
   <si>
     <t>Pre-launch reviews</t>
+  </si>
+  <si>
+    <t>Check in with VA Notify to see if they are back</t>
+  </si>
+  <si>
+    <t>Sprint 74 (5/17 - 5/31)</t>
+  </si>
+  <si>
+    <t>QA; Analytics request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continue build; Finish design; Finish FE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: If content isn't done, assess when we think that will be done based on Danielle's availability; If time, work on contact center guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish all design updates; If time, work on contact center guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish FE if possible
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provide estimate of how long BE build will take; Continue BE build</t>
+    </r>
+  </si>
+  <si>
+    <t>PM: Request QA; Finish all QA prep
+Finish BE build</t>
+  </si>
+  <si>
+    <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments) --&gt; this is only per availability, and note that we haven't been intro'd to MHV yet (but hopefully will soon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design: Tickets for design in profile and email; </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Intro work to VANotify
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Design intent; start FE documentation on when the alert shows in the profile and when the email will be sent out (initial blast; whenever a new bad address is added); Research prep?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: When can we start BE work? We'll need tech discovery around how emails will work.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2433,8 +2603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2454,10 +2624,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2468,7 +2638,7 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2479,7 +2649,7 @@
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2490,7 +2660,7 @@
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2501,7 +2671,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2512,7 +2682,7 @@
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2523,7 +2693,7 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2534,7 +2704,7 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="124" x14ac:dyDescent="0.35">
@@ -2545,7 +2715,7 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="124" x14ac:dyDescent="0.35">
@@ -2553,10 +2723,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2564,10 +2734,10 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2575,10 +2745,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2586,10 +2756,10 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2600,7 +2770,7 @@
         <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2608,10 +2778,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2622,7 +2792,7 @@
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2633,15 +2803,15 @@
         <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2653,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2781,23 +2951,20 @@
         <v>68</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2809,12 +2976,23 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2828,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2937,23 +3115,23 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="155" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2961,7 +3139,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2969,7 +3147,7 @@
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2977,7 +3155,7 @@
         <v>122</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2985,11 +3163,14 @@
         <v>152</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
@@ -3011,7 +3192,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3052,7 +3233,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3060,7 +3241,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3068,12 +3249,15 @@
         <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3110,6 +3294,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3117,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3131,7 +3316,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3151,7 +3336,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3159,7 +3344,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3167,12 +3352,15 @@
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3217,7 +3405,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3265,15 +3453,15 @@
         <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3390,13 +3578,13 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>97</v>
@@ -3416,7 +3604,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
@@ -3454,16 +3642,16 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3122092-34D8-442B-A276-E40E7D277120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845126AC-380F-4A93-B284-F9DD722D5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="19100" windowHeight="10100" tabRatio="816" activeTab="4" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="350" yWindow="90" windowWidth="18560" windowHeight="10100" tabRatio="816" activeTab="5" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA" sheetId="1" r:id="rId1"/>
     <sheet name="Alerts" sheetId="11" r:id="rId2"/>
     <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId3"/>
     <sheet name="Profile_Bad address" sheetId="15" r:id="rId4"/>
-    <sheet name="Profile_Military service info" sheetId="17" r:id="rId5"/>
-    <sheet name="MHV_VA.gov profile research" sheetId="16" r:id="rId6"/>
+    <sheet name="MHV_VA.gov profile research" sheetId="16" r:id="rId5"/>
+    <sheet name="Profile_Military service info" sheetId="17" r:id="rId6"/>
     <sheet name="LT project planning" sheetId="14" r:id="rId7"/>
     <sheet name="Planning by person" sheetId="13" r:id="rId8"/>
     <sheet name="Task list for projects" sheetId="7" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
   <si>
     <t>PM</t>
   </si>
@@ -1553,9 +1553,6 @@
     <t>Liz to deliver final report</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>On hold until VANotify is available</t>
   </si>
   <si>
@@ -1683,12 +1680,6 @@
     </r>
   </si>
   <si>
-    <t>QA; UAT planning</t>
-  </si>
-  <si>
-    <t>Pre-launch prep; UAT</t>
-  </si>
-  <si>
     <t>Chris to talk to MHV and make intros</t>
   </si>
   <si>
@@ -1865,65 +1856,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Discovery; design exploration</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Medical copays
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Research planning and prep -- are we doing a "mock" A/B test? Getting feedback during payment UAT? Both?</t>
     </r>
   </si>
   <si>
@@ -1948,9 +1880,6 @@
     <t>Pre-launch reviews</t>
   </si>
   <si>
-    <t>Check in with VA Notify to see if they are back</t>
-  </si>
-  <si>
     <t>Sprint 74 (5/17 - 5/31)</t>
   </si>
   <si>
@@ -2050,16 +1979,25 @@
     </r>
   </si>
   <si>
-    <t>PM: Request QA; Finish all QA prep
-Finish BE build</t>
-  </si>
-  <si>
     <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments) --&gt; this is only per availability, and note that we haven't been intro'd to MHV yet (but hopefully will soon)</t>
   </si>
   <si>
-    <t xml:space="preserve">Design: Tickets for design in profile and email; </t>
-  </si>
-  <si>
+    <t>Pre-launch prep
+- If all updates from QA are done, Recruit for and hold UAT
+- Staging review if we couldn't hold it last sprint; privacy and security review</t>
+  </si>
+  <si>
+    <t>Submit for 508 review</t>
+  </si>
+  <si>
+    <t>Observe stats after launch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PRE LAUNCH!! 
+This assumes call center guide is all done.
+- </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2079,7 +2017,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Intro work to VANotify
+      <t xml:space="preserve">: Make sure analytics updates get implemented; Put together launch plan; Prep fors taging review; Hold staging review if we don't need to do any significant updates from QA (can be towards the end of the sprint if necessary)
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Updates from QA, if applicable
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Updates from QA if applicable; Prep for privacy and security review
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Prepare any technical diagrams or other documentation needed for the privacy and security review</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Medical copays
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ?
 </t>
     </r>
     <r>
@@ -2101,7 +2121,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Design intent; start FE documentation on when the alert shows in the profile and when the email will be sent out (initial blast; whenever a new bad address is added); Research prep?
+      <t>: Finish design explorations; Hold design intent if it didn't already happen;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Research planning and prep -- are we doing a "mock" A/B test? Getting feedback during payment UAT? Both?</t>
+    </r>
+  </si>
+  <si>
+    <t>Get feedback on design in payment UAT; Other research?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3/15: Intro work to the new VANotify team
 </t>
     </r>
     <r>
@@ -2113,6 +2162,105 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Regroup with VANotify on this work and determine what next steps are for them; determine timelines for VANotify and FE work
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Connect FE to backend API Lihan created</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 75 (6/1 - 6/14)</t>
+  </si>
+  <si>
+    <t>Sprint 76 (6/15 - 6/28)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finish BE
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Request QA; Finish all QA prep
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT planning
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BE</t>
     </r>
     <r>
@@ -2123,8 +2271,487 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: When can we start BE work? We'll need tech discovery around how emails will work.</t>
-    </r>
+      <t>: Finish BE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect FE to BE </t>
+  </si>
+  <si>
+    <t>QA; Analytics request; Launch plan</t>
+  </si>
+  <si>
+    <t>Sprint 77 (6/29 - 7/12)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish design if it's not done; If done, contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish any updates if they are not already done; If done, project is on pause for Adam until backend is ready to connect to frontend
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue BE (Tom out 3/10, 11, 14)</t>
+    </r>
+  </si>
+  <si>
+    <t>Design: Tickets for design in profile and email</t>
+  </si>
+  <si>
+    <t>Sprint 78 (7/13 - 7/26)</t>
+  </si>
+  <si>
+    <t>Sprint 79 (7/27 - 8/9)</t>
+  </si>
+  <si>
+    <t>Sprint 80 (8/10 - 8/23)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hold midpoint review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Recruit/conduct
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: BE work on email blast/individual emails</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Summarize research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA Prep</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Updates from research, if applicable; Contact center guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Updates from research, if applicable
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Updates from research, if applicable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Analytics request</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: UAT prep and planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Updates from QA if applicable; Prep for staging &amp; privacy reviews</t>
+  </si>
+  <si>
+    <t>Staging review; Privacy review</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design intent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Intro work to VANotify; determine what they need to do, if anything. Probably something given that we want to send an initial email blast and then emails for users when the bad address indicator gets added.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Design if not done the previous sprint; Design intent; Work with content on profile/email copy; start FE documentation on when the alert shows in the profile and when the email will be sent out (initial blast; whenever a new bad address is added)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Start FE work in profile</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Midpoint review prep; Start on QA use cases (this will not be completed yet); Figure out how we can get a staging user with the bad address indicator for testing (might require working with VA Profile)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish FE documentation; Research prep
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Assuming Design work is done for profile, start FE build (including connecting to BE Tom already built)</t>
+    </r>
+  </si>
+  <si>
+    <t>Conduct all stakeholder interviews (MHV + VA.gov)</t>
+  </si>
+  <si>
+    <t>User research prep</t>
+  </si>
+  <si>
+    <t>User research interviews</t>
   </si>
 </sst>
 </file>
@@ -2603,15 +3230,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.58203125" customWidth="1"/>
+    <col min="2" max="2" width="54.4140625" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
@@ -2624,10 +3251,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2638,7 +3265,7 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2649,7 +3276,7 @@
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2660,7 +3287,7 @@
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2671,7 +3298,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -2682,7 +3309,7 @@
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2693,7 +3320,7 @@
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -2704,7 +3331,7 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="124" x14ac:dyDescent="0.35">
@@ -2715,7 +3342,7 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="124" x14ac:dyDescent="0.35">
@@ -2723,10 +3350,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -2734,10 +3361,10 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -2745,32 +3372,32 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>158</v>
+      <c r="B14" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -2778,10 +3405,10 @@
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2789,29 +3416,32 @@
         <v>122</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +3456,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2935,7 +3565,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2943,15 +3573,15 @@
         <v>67</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2964,7 +3594,7 @@
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2977,7 +3607,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>91</v>
@@ -2985,7 +3615,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>92</v>
@@ -3006,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3115,7 +3745,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -3123,23 +3753,23 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3147,7 +3777,7 @@
         <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3155,31 +3785,48 @@
         <v>122</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3189,16 +3836,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="47.83203125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
@@ -3233,7 +3880,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -3241,7 +3888,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3249,48 +3896,98 @@
         <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="124" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>121</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="A15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3299,6 +3996,123 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A7DF1-DF5D-4BDE-A8B9-32553A8BE824}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.9140625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -3316,7 +4130,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3336,7 +4150,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3344,7 +4158,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3352,7 +4166,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3360,7 +4174,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3380,7 +4194,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3394,123 +4208,6 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A7DF1-DF5D-4BDE-A8B9-32553A8BE824}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.9140625" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3564,7 +4261,7 @@
         <v>122</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -3578,13 +4275,13 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>97</v>
@@ -3604,7 +4301,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
@@ -3642,16 +4339,16 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>

--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845126AC-380F-4A93-B284-F9DD722D5CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504E6F4A-5692-4324-BD2A-AC40AC9A3A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="90" windowWidth="18560" windowHeight="10100" tabRatio="816" activeTab="5" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="20" yWindow="100" windowWidth="19150" windowHeight="10100" tabRatio="816" firstSheet="2" activeTab="2" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
-    <sheet name="My VA" sheetId="1" r:id="rId1"/>
-    <sheet name="Alerts" sheetId="11" r:id="rId2"/>
-    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId3"/>
-    <sheet name="Profile_Bad address" sheetId="15" r:id="rId4"/>
-    <sheet name="MHV_VA.gov profile research" sheetId="16" r:id="rId5"/>
-    <sheet name="Profile_Military service info" sheetId="17" r:id="rId6"/>
-    <sheet name="LT project planning" sheetId="14" r:id="rId7"/>
-    <sheet name="Planning by person" sheetId="13" r:id="rId8"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId9"/>
+    <sheet name="My VA_Payment history" sheetId="1" r:id="rId1"/>
+    <sheet name="My VA_Alerts" sheetId="11" r:id="rId2"/>
+    <sheet name="My VA_Audit" sheetId="20" r:id="rId3"/>
+    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId4"/>
+    <sheet name="Profile_Bad address" sheetId="15" r:id="rId5"/>
+    <sheet name="MHV_VA.gov profile research" sheetId="16" r:id="rId6"/>
+    <sheet name="Profile_Military service info" sheetId="17" r:id="rId7"/>
+    <sheet name="Profile_Notification Preference" sheetId="19" r:id="rId8"/>
+    <sheet name="Profile_Direct deposit" sheetId="18" r:id="rId9"/>
+    <sheet name="Profile_Update documentation" sheetId="21" r:id="rId10"/>
+    <sheet name="LT project planning" sheetId="14" r:id="rId11"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="238">
   <si>
     <t>PM</t>
   </si>
@@ -758,24 +761,6 @@
 - Tressa: Mockup/explorations</t>
   </si>
   <si>
-    <t>Planning by person</t>
-  </si>
-  <si>
-    <t>Tressa</t>
-  </si>
-  <si>
-    <t>Liz</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Lihan</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1075,18 +1060,6 @@
     <t>Midpoint review, Recruit for user testing, Start testing (?) continue FE build; BE build (tickets TBD after we talk to this team on Wednesday)</t>
   </si>
   <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Out; then hopefully can start on MPI work if possible; otherwise, on hold with all work </t>
-  </si>
-  <si>
-    <t>Research recruiting; out most of the sprint; needs more work</t>
-  </si>
-  <si>
-    <t>Start transition to take over My VA work; out most of sprint but needs something</t>
-  </si>
-  <si>
     <t>Recruit for testing if possible
 - Recruit for testing if contract is back
 - Continue whatever is left of the frontend build</t>
@@ -1153,12 +1126,6 @@
       </rPr>
       <t>- Determine next steps for backend build; If possible, Tom can start to implement build if possible</t>
     </r>
-  </si>
-  <si>
-    <t>My VA payments work; On-site alerts updates, if applicable</t>
-  </si>
-  <si>
-    <t>Onboarding; Can we start him on the VANotify integration? Andre should assign him to help another team</t>
   </si>
   <si>
     <t>Research/midpoint review planning
@@ -1266,12 +1233,6 @@
     <t>Sprint 72 (4/20 - 5/3)</t>
   </si>
   <si>
-    <t>Personal info research</t>
-  </si>
-  <si>
-    <t>Tressa's last sprint; Research planning for payment info</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Research
 - </t>
@@ -1363,24 +1324,6 @@
       </rPr>
       <t>:  Start BE build</t>
     </r>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>View Payments technical discovery</t>
-  </si>
-  <si>
-    <t>Resolve direct deposit issues; On-site notifications build</t>
-  </si>
-  <si>
-    <t>Resolve direct deposit issues; Personal info build</t>
-  </si>
-  <si>
-    <t>Personal info research; continue taking over My VA from Tressa; Finish "benefits you might be interested in updates" if not done</t>
-  </si>
-  <si>
-    <t>View payments build; On-site notifications MVP build; Benefits you might be interested in update</t>
   </si>
   <si>
     <t>Midpoint review; Research planning
@@ -1415,24 +1358,6 @@
 - Start BE build if possible</t>
   </si>
   <si>
-    <t>Rolling off team</t>
-  </si>
-  <si>
-    <t>Payment history/on-site notifications research</t>
-  </si>
-  <si>
-    <t>Personal info research summary; likely needs more work</t>
-  </si>
-  <si>
-    <t>Likely needs more work</t>
-  </si>
-  <si>
-    <t>Start on on-site notifications build, if possible</t>
-  </si>
-  <si>
-    <t>Start on personal info build, if possible</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Hold midpoint review
 - </t>
@@ -1550,25 +1475,13 @@
     <t>Samara: Outline rough research plan; If it seems like research can happen soon, get Chris on board.</t>
   </si>
   <si>
-    <t>Liz to deliver final report</t>
-  </si>
-  <si>
     <t>On hold until VANotify is available</t>
   </si>
   <si>
     <t>Sprint 73 (5/4 - 5/17)</t>
   </si>
   <si>
-    <t>Pre-launch prep/UAT</t>
-  </si>
-  <si>
     <t>Military service info</t>
-  </si>
-  <si>
-    <t>Samara does discovery; Submits intake form; Maybe initial convos with VA Profile</t>
-  </si>
-  <si>
-    <t>Project planning; Collab cycle kickoff; product outline</t>
   </si>
   <si>
     <t>Finish build
@@ -1588,9 +1501,6 @@
     <t>Collab cycle kickoff; If time allows with personal info work, start design brainstorming</t>
   </si>
   <si>
-    <t>Still waiting to hear back from VA Profile</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1698,34 +1608,7 @@
     <t>Payment info updates</t>
   </si>
   <si>
-    <t>Medical copays</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Medical copays</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- PM/Design: Have planning discussion</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1798,71 +1681,6 @@
       </rPr>
       <t>: Error states; user testing updates</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Medical copays
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Fill out collab kickoff ticket, but clarify we likely won't need more than a design review and maybe research review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Discovery; design exploration</t>
-    </r>
-  </si>
-  <si>
-    <t>Research?</t>
-  </si>
-  <si>
-    <t>Launch</t>
   </si>
   <si>
     <t>Sprint 74 (5/18 - 5/31)</t>
@@ -1874,16 +1692,7 @@
 - UAT planning</t>
   </si>
   <si>
-    <t>QA if needed; Analytics request; Pre-launch reviews</t>
-  </si>
-  <si>
-    <t>Pre-launch reviews</t>
-  </si>
-  <si>
     <t>Sprint 74 (5/17 - 5/31)</t>
-  </si>
-  <si>
-    <t>QA; Analytics request</t>
   </si>
   <si>
     <r>
@@ -1982,15 +1791,303 @@
     <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments) --&gt; this is only per availability, and note that we haven't been intro'd to MHV yet (but hopefully will soon)</t>
   </si>
   <si>
-    <t>Pre-launch prep
-- If all updates from QA are done, Recruit for and hold UAT
-- Staging review if we couldn't hold it last sprint; privacy and security review</t>
-  </si>
-  <si>
     <t>Submit for 508 review</t>
   </si>
   <si>
     <t>Observe stats after launch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3/15: Intro work to the new VANotify team
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Regroup with VANotify on this work and determine what next steps are for them; determine timelines for VANotify and FE work
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Connect FE to backend API Lihan created</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 75 (6/1 - 6/14)</t>
+  </si>
+  <si>
+    <t>Sprint 76 (6/15 - 6/28)</t>
+  </si>
+  <si>
+    <t>Sprint 77 (6/29 - 7/12)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish design if it's not done; If done, contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finish any updates if they are not already done; If done, project is on pause for Adam until backend is ready to connect to frontend
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue BE (Tom out 3/10, 11, 14)</t>
+    </r>
+  </si>
+  <si>
+    <t>Design: Tickets for design in profile and email</t>
+  </si>
+  <si>
+    <t>Sprint 78 (7/13 - 7/26)</t>
+  </si>
+  <si>
+    <t>Sprint 79 (7/27 - 8/9)</t>
+  </si>
+  <si>
+    <t>Sprint 80 (8/10 - 8/23)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design intent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Intro work to VANotify; determine what they need to do, if anything. Probably something given that we want to send an initial email blast and then emails for users when the bad address indicator gets added.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Design if not done the previous sprint; Design intent; Work with content on profile/email copy; start FE documentation on when the alert shows in the profile and when the email will be sent out (initial blast; whenever a new bad address is added)</t>
+    </r>
+  </si>
+  <si>
+    <t>Conduct all stakeholder interviews (MHV + VA.gov)</t>
+  </si>
+  <si>
+    <t>Direct deposit improvements</t>
+  </si>
+  <si>
+    <r>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Implement always showing direct deposit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Samara</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Try to figure out what error codes mean so we can look into them</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Observe analytics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Get Jason to send us Medallia data; Assess how direct deposit feedback has changed. Are people saying they should see DD info that are not seeing it? Determine next steps.</t>
+    </r>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>Notification preferences updates</t>
+  </si>
+  <si>
+    <t>Add comp &amp; pen payment notification: Start date TBD; Originally mentioned in VA Profile meeting on 3/10</t>
+  </si>
+  <si>
+    <t>QA; Analytics request; Call center guide (can use My VA guide)</t>
   </si>
   <si>
     <r>
@@ -2017,7 +2114,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Make sure analytics updates get implemented; Put together launch plan; Prep fors taging review; Hold staging review if we don't need to do any significant updates from QA (can be towards the end of the sprint if necessary)
+      <t xml:space="preserve">: Make sure analytics updates get implemented; Put together launch plan; Prep for staging review; Hold staging review if we don't need to do any significant updates from QA (can be towards the end of the sprint if necessary)
 - </t>
     </r>
     <r>
@@ -2087,19 +2184,40 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Medical copays
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ?
+    <t>Because of BGS delays…
+- QA updates
+- Finish prep and hold staging review
+- Privacy and security review
+- UAT go/no-go
+- Start recruiting for UAT?</t>
+  </si>
+  <si>
+    <t>Research review; Discuss next steps</t>
+  </si>
+  <si>
+    <t>Finish backend; request QA</t>
+  </si>
+  <si>
+    <t>QA; Prep for staging review</t>
+  </si>
+  <si>
+    <t>Staging review; Privacy &amp; security review</t>
+  </si>
+  <si>
+    <t>Launch to 25%; Launch to 50%</t>
+  </si>
+  <si>
+    <t>N/A -- Waiting for availability</t>
+  </si>
+  <si>
+    <t>VA Profile let us know about new comp &amp; pen payment notification</t>
+  </si>
+  <si>
+    <t>Samara to do planning on next steps</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Continue BE
 </t>
     </r>
     <r>
@@ -2111,6 +2229,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Call center guide; Determine when we can do QA based on new BE timeline
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Design</t>
     </r>
     <r>
@@ -2121,36 +2261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Finish design explorations; Hold design intent if it didn't already happen;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Research planning and prep -- are we doing a "mock" A/B test? Getting feedback during payment UAT? Both?</t>
-    </r>
-  </si>
-  <si>
-    <t>Get feedback on design in payment UAT; Other research?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3/15: Intro work to the new VANotify team
+      <t xml:space="preserve">: Change gender identity BACK to single select; Create a couple mockups showing preferred name/gender identity without the other fields; Call center guide
 </t>
     </r>
     <r>
@@ -2162,6 +2273,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Change gender identity BACK to single select; Implement final design updates; Gate separating preferred name/gender identity from pronouns/sexual orientation; Hide pronouns/sexual orientation on the frontend as part of the gate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Continue BE integration; Determine how our approach changes given separate launch of pronouns and sexual orientation</t>
+    </r>
+  </si>
+  <si>
+    <t>UAT prep and planning; Updates from QA if applicable; Prep for staging &amp; privacy reviews</t>
+  </si>
+  <si>
+    <t>Staging review; Privacy review; UAT recruiting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PM</t>
     </r>
     <r>
@@ -2172,7 +2334,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Regroup with VANotify on this work and determine what next steps are for them; determine timelines for VANotify and FE work
+      <t xml:space="preserve">:  Start on QA use cases (this will not be completed yet); Figure out how we can get a staging user with the bad address indicator for testing (might require working with VA Profile)
 </t>
     </r>
     <r>
@@ -2184,24 +2346,105 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Connect FE to backend API Lihan created</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint 75 (6/1 - 6/14)</t>
-  </si>
-  <si>
-    <t>Sprint 76 (6/15 - 6/28)</t>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Design intent if it didn't happen; Finalize designs; FE documentation</t>
+    </r>
+  </si>
+  <si>
+    <t>Samara to prep product outline</t>
+  </si>
+  <si>
+    <t>Get update on comp &amp; pen notification and do planning; Update prescriptions notification to accommodate additional facilities</t>
+  </si>
+  <si>
+    <t>Have Tom start this work; Collab kickoff; Begin backend integration</t>
+  </si>
+  <si>
+    <t>Get Christina to update mocks with the new claims deposit notification info, then get feedback from IA and content</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Audit nametag
+- Audit claims &amp; appeals
+- Exploration for showing amount in debts &amp; copays section/not showing debt and copay info as a notification style.</t>
+    </r>
+  </si>
+  <si>
+    <t>Once this work is done, take 2 sprints to create master doc of contact info</t>
+  </si>
+  <si>
+    <t>Once this work is done, take 1 sprint to create master doc of Military info</t>
+  </si>
+  <si>
+    <t>Once this work is done, take 1 sprint to create master doc of notification prefs functionality</t>
+  </si>
+  <si>
+    <t>Once this work is done, take 1- 2 sprints to create master doc of direct deposit functionality</t>
+  </si>
+  <si>
+    <t>Pre-launch prep
+- Updates from the staging review, if necessary
+- If we are good to go, recruit and hold UAT
+- PM: During UAT, make sure we can see analytics come in
+- Privacy and security review (ticket open and pending review)</t>
+  </si>
+  <si>
+    <t>VANotify to start work; evaluate what they need to do so we can plan our own timelines; Do we have a plan for QA?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Audit health care
+- Audit benefit payments and debts
+- Audit applications in progress
+- If time, regroup with Samara/AJ (or Heather if she is still here) on existing states</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2227,7 +2470,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Request QA; Finish all QA prep
+      <t xml:space="preserve">: Request QA for 5/4 - 5/17 sprint; Finish all QA prep; Finish call center guide
 - </t>
     </r>
     <r>
@@ -2249,7 +2492,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: UAT planning
+      <t xml:space="preserve">:  Finish call center guide; UAT planning if time
 - </t>
     </r>
     <r>
@@ -2261,6 +2504,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start connecting frontent to backend; Finish this if possible
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BE</t>
     </r>
     <r>
@@ -2275,13 +2540,573 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Connect FE to BE </t>
-  </si>
-  <si>
-    <t>QA; Analytics request; Launch plan</t>
-  </si>
-  <si>
-    <t>Sprint 77 (6/29 - 7/12)</t>
+    <t>User research prep &amp; recruiting; User interviews</t>
+  </si>
+  <si>
+    <t>On Hold (Sharon onboarding; Team focused on other work)</t>
+  </si>
+  <si>
+    <t>Pre-launch prep; Staging review; privacy review; UAT recruiting</t>
+  </si>
+  <si>
+    <t>My VA: Audit</t>
+  </si>
+  <si>
+    <t>Liz to compile final report</t>
+  </si>
+  <si>
+    <t>Share final report with team</t>
+  </si>
+  <si>
+    <t>Sharon to prep QA test cases; Analytics planning</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Monitor launch to 25%
+Monitor launch to 50%
+For V2 updates: Collab cycle kickoff
+For V2 updates: Collab cycle design intent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Flip feature flag for launch to 25%
+Flip feature flag for launch to 50%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For V2 updates: Collab cycle design intent
+For V2 updates: Updates coming out of design intent</t>
+    </r>
+  </si>
+  <si>
+    <t>Determine continued backend needs so we can plan for Tom accordingly;</t>
+  </si>
+  <si>
+    <t>Determine next steps for VANotify; Determine next steps for Tom</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Review audit with team (to make sure nothing is missing
+- Start streamlining states for each section
+  - Start with nametag and payment info (since we are working on it anyway)
+  - Each section should always appear on the page
+  - Each section should have the following: loadin state; blank state(s); content state(s); error state(s). Note: the nametag might be a little different, as there's never a totally blank state, and we don't show big error alerts for content we can't load.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Continue simplifying each section
+  - Claims &amp; appeals
+  - Health care</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Anything outstanding from last sprint, plus...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Submit call center guide for review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Complete UAT planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Connect FE to BE if that still needs to happen
+Everyone: Once the feature is fully complete in staging, everyone on the project should go into staging and review the feature to make sure it's ready for QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for research</t>
+    </r>
+  </si>
+  <si>
+    <t>PM: Request QA
+Design: Updates from research
+FE: Updates from research, if applicable
+BE: Updates from research, if applicable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Analytics request; Launch planning</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 81 (8/24 - 9/6)</t>
+  </si>
+  <si>
+    <t>Sprint 82 (9/7 - 9/20)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA Prep</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct research; Summarize research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Midpoint review prep
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Put together research plan; Put together convo guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Assuming Design work is done for profile, start FE build if time (personal info work takes priority)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Update direct deposit mockups in Sketch (apparently outdated); Mock up screens to for direct deposit being persistently available; Clarify edu feedback that if they receive checks, they need to call to start direct deposit</t>
+    </r>
+  </si>
+  <si>
+    <t>Collab kickoff; Design intent</t>
+  </si>
+  <si>
+    <t>Design updates; Research plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>FE build</t>
+  </si>
+  <si>
+    <t>Research updates</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION SPRINT</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>NOTE: Consider smaller, iterative launches</t>
+  </si>
+  <si>
+    <t>Launch to 100%; DOCUMENTATION SPRINT</t>
+  </si>
+  <si>
+    <t>Profile: Create better documentation</t>
+  </si>
+  <si>
+    <t>Planning: Figure out structure for documentation</t>
+  </si>
+  <si>
+    <t>Document Personal Info</t>
+  </si>
+  <si>
+    <t>Document Contact Info</t>
+  </si>
+  <si>
+    <t>Document Military Info</t>
+  </si>
+  <si>
+    <t>Document Direct Deposit</t>
+  </si>
+  <si>
+    <t>Document Notification Preferences</t>
+  </si>
+  <si>
+    <t>Document Account Settings</t>
+  </si>
+  <si>
+    <t>Document Connected Apps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Observe analytic</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2297,6 +3122,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Start on QA use cases (this will not be completed yet)
+Figure out how we can get a staging user with the bad address indicator for testing (might require working with VA Profile)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Design</t>
     </r>
     <r>
@@ -2307,7 +3155,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Finish design if it's not done; If done, contact center guide 
+      <t>: Create high fidelity mockups</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PM and Design on hold
 </t>
     </r>
     <r>
@@ -2319,17 +3172,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish any updates if they are not already done; If done, project is on pause for Adam until backend is ready to connect to frontend
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: BE work on email blast/individual emails</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QA
 </t>
     </r>
     <r>
@@ -2341,34 +3199,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Continue BE (Tom out 3/10, 11, 14)</t>
-    </r>
-  </si>
-  <si>
-    <t>Design: Tickets for design in profile and email</t>
-  </si>
-  <si>
-    <t>Sprint 78 (7/13 - 7/26)</t>
-  </si>
-  <si>
-    <t>Sprint 79 (7/27 - 8/9)</t>
-  </si>
-  <si>
-    <t>Sprint 80 (8/10 - 8/23)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Midpoint review
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Figure out what pages need to be updated re: profile URLs and work with the right folks to get that updated; QA go/no-go; Analytics request; Launch plan
 </t>
     </r>
     <r>
@@ -2380,230 +3221,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hold midpoint review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Recruit/conduct
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: BE work on email blast/individual emails</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Summarize research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA Prep</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Updates from research, if applicable; Contact center guide
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Updates from research, if applicable
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Updates from research, if applicable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Analytics request</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: UAT prep and planning
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>QA</t>
     </r>
     <r>
@@ -2614,144 +3231,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Hold QA</t>
-    </r>
-  </si>
-  <si>
-    <t>Updates from QA if applicable; Prep for staging &amp; privacy reviews</t>
-  </si>
-  <si>
-    <t>Staging review; Privacy review</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Design intent
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Intro work to VANotify; determine what they need to do, if anything. Probably something given that we want to send an initial email blast and then emails for users when the bad address indicator gets added.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Design if not done the previous sprint; Design intent; Work with content on profile/email copy; start FE documentation on when the alert shows in the profile and when the email will be sent out (initial blast; whenever a new bad address is added)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Start FE work in profile</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Midpoint review prep; Start on QA use cases (this will not be completed yet); Figure out how we can get a staging user with the bad address indicator for testing (might require working with VA Profile)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Finish FE documentation; Research prep
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Assuming Design work is done for profile, start FE build (including connecting to BE Tom already built)</t>
-    </r>
-  </si>
-  <si>
-    <t>Conduct all stakeholder interviews (MHV + VA.gov)</t>
-  </si>
-  <si>
-    <t>User research prep</t>
-  </si>
-  <si>
-    <t>User research interviews</t>
+      <t>: QA</t>
+    </r>
+  </si>
+  <si>
+    <t>On hold due to other work</t>
   </si>
 </sst>
 </file>
@@ -2828,7 +3312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2859,6 +3343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2873,7 +3363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2913,6 +3403,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3228,220 +3720,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5048D4-1D99-F241-A772-A7498879BB98}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="54.4140625" customWidth="1"/>
-    <col min="3" max="3" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="124" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="124" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="155" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="248" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3451,395 +3932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
-  <dimension ref="A1:C20"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BEEDF-5D9A-415C-A9FB-9F1C751F8AEE}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="92.08203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="186" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="155" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3852,7 +3950,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3869,357 +3967,100 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A7DF1-DF5D-4BDE-A8B9-32553A8BE824}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.9140625" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4235,12 +4076,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>66</v>
@@ -4255,13 +4096,13 @@
         <v>69</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -4272,54 +4113,54 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4330,39 +4171,39 @@
     </row>
     <row r="8" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -4371,19 +4212,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4392,178 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57995BE7-5FDF-4E2A-BC70-63E699D35C62}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="32" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.58203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="28.9140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="32.25" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4827,4 +4497,1269 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="92.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="186" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.58203125" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="155" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A7DF1-DF5D-4BDE-A8B9-32553A8BE824}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.9140625" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7808A-6775-498A-B607-482E9A4A47BB}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D172D61-57A6-44E0-A78D-80D0E1F503ED}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C31D002-C68E-4CB9-BCD9-063BE65546FF}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
+++ b/teams/vsa/teams/authenticated-experience/sprint-objectives/Long term project planning.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacostraus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504E6F4A-5692-4324-BD2A-AC40AC9A3A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281FEDE-4D92-4010-8754-3F8F3E84C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="100" windowWidth="19150" windowHeight="10100" tabRatio="816" firstSheet="2" activeTab="2" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
+    <workbookView xWindow="20" yWindow="100" windowWidth="19180" windowHeight="10100" tabRatio="816" firstSheet="4" activeTab="7" xr2:uid="{B98B3733-8317-BA46-95B1-22E8974E218C}"/>
   </bookViews>
   <sheets>
     <sheet name="My VA_Payment history" sheetId="1" r:id="rId1"/>
-    <sheet name="My VA_Alerts" sheetId="11" r:id="rId2"/>
-    <sheet name="My VA_Audit" sheetId="20" r:id="rId3"/>
-    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId4"/>
-    <sheet name="Profile_Bad address" sheetId="15" r:id="rId5"/>
+    <sheet name="My VA_Audit" sheetId="20" r:id="rId2"/>
+    <sheet name="My VA_Redirect" sheetId="22" r:id="rId3"/>
+    <sheet name="On-site notifications" sheetId="11" r:id="rId4"/>
+    <sheet name="Profile_LGBTQ data" sheetId="10" r:id="rId5"/>
     <sheet name="MHV_VA.gov profile research" sheetId="16" r:id="rId6"/>
     <sheet name="Profile_Military service info" sheetId="17" r:id="rId7"/>
     <sheet name="Profile_Notification Preference" sheetId="19" r:id="rId8"/>
     <sheet name="Profile_Direct deposit" sheetId="18" r:id="rId9"/>
-    <sheet name="Profile_Update documentation" sheetId="21" r:id="rId10"/>
-    <sheet name="LT project planning" sheetId="14" r:id="rId11"/>
-    <sheet name="Task list for projects" sheetId="7" r:id="rId12"/>
+    <sheet name="Profile_Bad address" sheetId="15" r:id="rId10"/>
+    <sheet name="Profile_Update documentation" sheetId="21" r:id="rId11"/>
+    <sheet name="LT project planning" sheetId="14" r:id="rId12"/>
+    <sheet name="Task list for projects" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="255">
   <si>
     <t>PM</t>
   </si>
@@ -992,9 +993,6 @@
     </r>
   </si>
   <si>
-    <t>Pre-launch prep</t>
-  </si>
-  <si>
     <t>Launch to 25% &amp; 50%</t>
   </si>
   <si>
@@ -1791,12 +1789,6 @@
     <t>Liz to start research planning (if Liz isn't needing to do UAT planning for payments) --&gt; this is only per availability, and note that we haven't been intro'd to MHV yet (but hopefully will soon)</t>
   </si>
   <si>
-    <t>Submit for 508 review</t>
-  </si>
-  <si>
-    <t>Observe stats after launch</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3/15: Intro work to the new VANotify team
 </t>
@@ -2085,9 +2077,6 @@
   </si>
   <si>
     <t>Add comp &amp; pen payment notification: Start date TBD; Originally mentioned in VA Profile meeting on 3/10</t>
-  </si>
-  <si>
-    <t>QA; Analytics request; Call center guide (can use My VA guide)</t>
   </si>
   <si>
     <r>
@@ -2195,9 +2184,6 @@
     <t>Research review; Discuss next steps</t>
   </si>
   <si>
-    <t>Finish backend; request QA</t>
-  </si>
-  <si>
     <t>QA; Prep for staging review</t>
   </si>
   <si>
@@ -2402,9 +2388,6 @@
   </si>
   <si>
     <t>Once this work is done, take 1 sprint to create master doc of Military info</t>
-  </si>
-  <si>
-    <t>Once this work is done, take 1 sprint to create master doc of notification prefs functionality</t>
   </si>
   <si>
     <t>Once this work is done, take 1- 2 sprints to create master doc of direct deposit functionality</t>
@@ -2546,19 +2529,497 @@
     <t>On Hold (Sharon onboarding; Team focused on other work)</t>
   </si>
   <si>
-    <t>Pre-launch prep; Staging review; privacy review; UAT recruiting</t>
-  </si>
-  <si>
     <t>My VA: Audit</t>
   </si>
   <si>
     <t>Liz to compile final report</t>
   </si>
   <si>
-    <t>Share final report with team</t>
-  </si>
-  <si>
-    <t>Sharon to prep QA test cases; Analytics planning</t>
+    <t>Determine next steps for VANotify; Determine next steps for Tom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+- Continue simplifying each section
+  - Claims &amp; appeals
+  - Health care</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Anything outstanding from last sprint, plus...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Submit call center guide for review
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Complete UAT planning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Connect FE to BE if that still needs to happen
+Everyone: Once the feature is fully complete in staging, everyone on the project should go into staging and review the feature to make sure it's ready for QA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold midpoint review</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Recruit for research</t>
+    </r>
+  </si>
+  <si>
+    <t>PM: Request QA
+Design: Updates from research
+FE: Updates from research, if applicable
+BE: Updates from research, if applicable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA
+PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Analytics request; Launch planning</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Contact center guide 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hold QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint 81 (8/24 - 9/6)</t>
+  </si>
+  <si>
+    <t>Sprint 82 (9/7 - 9/20)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: QA Prep</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Conduct research; Summarize research</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Midpoint review prep
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Put together research plan; Put together convo guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Assuming Design work is done for profile, start FE build if time (personal info work takes priority)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Update direct deposit mockups in Sketch (apparently outdated); Mock up screens to for direct deposit being persistently available; Clarify edu feedback that if they receive checks, they need to call to start direct deposit</t>
+    </r>
+  </si>
+  <si>
+    <t>Collab kickoff; Design intent</t>
+  </si>
+  <si>
+    <t>Design updates; Research plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>FE build</t>
+  </si>
+  <si>
+    <t>Research updates</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION SPRINT</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>NOTE: Consider smaller, iterative launches</t>
+  </si>
+  <si>
+    <t>Launch to 100%; DOCUMENTATION SPRINT</t>
+  </si>
+  <si>
+    <t>Profile: Create better documentation</t>
+  </si>
+  <si>
+    <t>Planning: Figure out structure for documentation</t>
+  </si>
+  <si>
+    <t>Document Personal Info</t>
+  </si>
+  <si>
+    <t>Document Contact Info</t>
+  </si>
+  <si>
+    <t>Document Military Info</t>
+  </si>
+  <si>
+    <t>Document Direct Deposit</t>
+  </si>
+  <si>
+    <t>Document Notification Preferences</t>
+  </si>
+  <si>
+    <t>Document Account Settings</t>
+  </si>
+  <si>
+    <t>Document Connected Apps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Observe analytic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PM and Design on hold
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: BE work on email blast/individual emails</t>
+    </r>
+  </si>
+  <si>
+    <t>On hold due to other work</t>
+  </si>
+  <si>
+    <t>Share final report with OCTO</t>
+  </si>
+  <si>
+    <t>Share final report with MHV</t>
+  </si>
+  <si>
+    <t>Start talking above massive notification migration from eBenefits; Mark to do some notification prefs discovery</t>
+  </si>
+  <si>
+    <t>Get connected to DMC; Is frontend done?</t>
+  </si>
+  <si>
+    <t>Launch to 5% and 10%</t>
+  </si>
+  <si>
+    <t>Launch to 25% and 50%</t>
   </si>
   <si>
     <r>
@@ -2631,18 +3092,80 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-For V2 updates: Collab cycle design intent
-For V2 updates: Updates coming out of design intent</t>
-    </r>
-  </si>
-  <si>
-    <t>Determine continued backend needs so we can plan for Tom accordingly;</t>
-  </si>
-  <si>
-    <t>Determine next steps for VANotify; Determine next steps for Tom</t>
-  </si>
-  <si>
-    <t>???</t>
+For V2 updates: Collab cycle design intent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Angela is out 5/3 - 5/10 (here 5 days this sprint)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Launch to 100%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Updates coming out of design intent (assuming we held design intent in sprint 72)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Submit for 508 review</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2665,7 +3188,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>:
-- Review audit with team (to make sure nothing is missing
 - Start streamlining states for each section
   - Start with nametag and payment info (since we are working on it anyway)
   - Each section should always appear on the page
@@ -2673,80 +3195,18 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
-- Continue simplifying each section
-  - Claims &amp; appeals
-  - Health care</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Anything outstanding from last sprint, plus...</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Submit call center guide for review
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Complete UAT planning
-</t>
-    </r>
+    <t>Continue frontend
+- Continue/finish frontend, including handling of multiple alerts
+- Regroup to figure out if we need to remove debt alert in benefit payments and debts before notifications launch
+- Figure out QA plan with DMC (backend team)</t>
+  </si>
+  <si>
+    <t>QA; Prep for staging review and privacy review</t>
+  </si>
+  <si>
+    <t>Staging review; Privacy review; Launch go/no-go</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -2766,423 +3226,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: Connect FE to BE if that still needs to happen
-Everyone: Once the feature is fully complete in staging, everyone on the project should go into staging and review the feature to make sure it's ready for QA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold midpoint review</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Recruit for research</t>
-    </r>
-  </si>
-  <si>
-    <t>PM: Request QA
-Design: Updates from research
-FE: Updates from research, if applicable
-BE: Updates from research, if applicable</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA
-PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Analytics request; Launch planning</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Contact center guide 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Hold QA</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint 81 (8/24 - 9/6)</t>
-  </si>
-  <si>
-    <t>Sprint 82 (9/7 - 9/20)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: QA Prep</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Conduct research; Summarize research</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Midpoint review prep
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Put together research plan; Put together convo guide
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Assuming Design work is done for profile, start FE build if time (personal info work takes priority)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Update direct deposit mockups in Sketch (apparently outdated); Mock up screens to for direct deposit being persistently available; Clarify edu feedback that if they receive checks, they need to call to start direct deposit</t>
-    </r>
-  </si>
-  <si>
-    <t>Collab kickoff; Design intent</t>
-  </si>
-  <si>
-    <t>Design updates; Research plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research </t>
-  </si>
-  <si>
-    <t>FE build</t>
-  </si>
-  <si>
-    <t>Research updates</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION SPRINT</t>
-  </si>
-  <si>
-    <t>Launch</t>
-  </si>
-  <si>
-    <t>NOTE: Consider smaller, iterative launches</t>
-  </si>
-  <si>
-    <t>Launch to 100%; DOCUMENTATION SPRINT</t>
-  </si>
-  <si>
-    <t>Profile: Create better documentation</t>
-  </si>
-  <si>
-    <t>Planning: Figure out structure for documentation</t>
-  </si>
-  <si>
-    <t>Document Personal Info</t>
-  </si>
-  <si>
-    <t>Document Contact Info</t>
-  </si>
-  <si>
-    <t>Document Military Info</t>
-  </si>
-  <si>
-    <t>Document Direct Deposit</t>
-  </si>
-  <si>
-    <t>Document Notification Preferences</t>
-  </si>
-  <si>
-    <t>Document Account Settings</t>
-  </si>
-  <si>
-    <t>Document Connected Apps</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Observe analytic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Start on QA use cases (this will not be completed yet)
-Figure out how we can get a staging user with the bad address indicator for testing (might require working with VA Profile)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Create high fidelity mockups</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PM and Design on hold
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: BE work on email blast/individual emails</t>
+      <t>:Updated URLs that point to the contact info section of the profile (audit Adam did a few sprints ago)</t>
     </r>
   </si>
   <si>
@@ -3209,7 +3253,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Figure out what pages need to be updated re: profile URLs and work with the right folks to get that updated; QA go/no-go; Analytics request; Launch plan
+      <t xml:space="preserve">: QA go/no-go; Analytics request; Release plan
 </t>
     </r>
     <r>
@@ -3231,11 +3275,208 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: QA</t>
-    </r>
-  </si>
-  <si>
-    <t>On hold due to other work</t>
+      <t>: QA
+Fixes on QA, if applicable and if QA results are available before the end of the sprint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Create high fidelity mockups</t>
+    </r>
+  </si>
+  <si>
+    <t>Launch to 100%  -- Make sure content page updates go out at the same time</t>
+  </si>
+  <si>
+    <t>Planning
+Collab cycle kickoff; Figure out who needs to be involved in the redirect; Make sure we'll be able to get weekly Medallia reports as needed; Determine preliminary launch date</t>
+  </si>
+  <si>
+    <t>Launch?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Observe stats after launch
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Design updates if they didn't happen or werent't finished in sprint 73; Sitewide content/IA review (collab cycle); Research planning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Design:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Is audit done? If done, review audit with team (to make sure nothing is missing</t>
+    </r>
+  </si>
+  <si>
+    <t>Are we done with the frontend build? What is the status of this work?
+Finish FE if it's not done; Continue to figure out QA strategy with DMC; Analytics request;</t>
+  </si>
+  <si>
+    <t>Request QA;  Call center guide (can use My VA guide); Release plan; QA go/no-go</t>
+  </si>
+  <si>
+    <t>Meet with OCTO again</t>
+  </si>
+  <si>
+    <t>Finish backend; Talk QA strategy -- do we need something beyond internal QA?; UAT planning (may be an internal UAT); Analytics planning -- do we need to make any updates?</t>
+  </si>
+  <si>
+    <t>Nothing for now</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Start on QA use cases (this will not be completed yet); Figure out how we can get a staging user with the bad address indicator for testing (might require working with VA Profile)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: research plan and convo guide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Can we start FE build?</t>
+    </r>
+  </si>
+  <si>
+    <t>Finish FE updates if they are not already done; Continue documentation as needed; Review build; determine launch strategy; Maybe launch updates?</t>
+  </si>
+  <si>
+    <t>Fixes from QA, if applicable; Pre-launch prep; Staging review; privacy review;  FE to implement analytics tracking</t>
+  </si>
+  <si>
+    <t>UAT go/no-go; UAT recruiting; UAT</t>
+  </si>
+  <si>
+    <t>Determine what we need to do for default send functionality and start scoping this work</t>
   </si>
 </sst>
 </file>
@@ -3723,7 +3964,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3742,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3782,7 +4023,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -3790,7 +4031,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
@@ -3798,7 +4039,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="124" x14ac:dyDescent="0.35">
@@ -3806,7 +4047,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="124" x14ac:dyDescent="0.35">
@@ -3814,7 +4055,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="155" x14ac:dyDescent="0.35">
@@ -3822,7 +4063,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="93" x14ac:dyDescent="0.35">
@@ -3830,7 +4071,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
@@ -3838,7 +4079,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
@@ -3846,83 +4087,83 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="248" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B17" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>145</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3933,6 +4174,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BEEDF-5D9A-415C-A9FB-9F1C751F8AEE}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -3950,7 +4410,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -3967,87 +4427,87 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +4515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C8100E-6083-4564-8AB8-D23EA98505DC}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -4076,12 +4536,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>66</v>
@@ -4096,13 +4556,13 @@
         <v>69</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -4113,54 +4573,54 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -4171,39 +4631,39 @@
     </row>
     <row r="8" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
         <v>91</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>92</v>
-      </c>
-      <c r="H9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -4212,19 +4672,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E086B-ED49-FC42-99E8-B2D19D5F3B6F}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -4500,11 +4960,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.58203125" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AF1A2-8F5D-4461-9230-B3FBD9CF2CBA}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.58203125" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="93" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A60C3A-EE91-4A0C-A338-8F91BBB060BD}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4516,7 +5262,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -4564,7 +5310,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -4572,10 +5318,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -4583,10 +5329,10 @@
         <v>63</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
@@ -4594,10 +5340,10 @@
         <v>64</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -4605,7 +5351,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4613,7 +5359,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4621,7 +5367,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
@@ -4629,7 +5375,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -4637,59 +5383,97 @@
         <v>69</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B22" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>87</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4698,181 +5482,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A29F7F-D318-4501-B539-E7F502D1032C}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.58203125" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300C52B1-6842-422A-86BC-5449ECAD688C}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4937,7 +5552,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -4948,7 +5563,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -4956,7 +5571,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="93" x14ac:dyDescent="0.35">
@@ -4964,7 +5579,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -4972,7 +5587,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
@@ -4980,7 +5595,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="155" x14ac:dyDescent="0.35">
@@ -4988,7 +5603,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
@@ -4996,7 +5611,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
@@ -5004,281 +5619,91 @@
         <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="93" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>195</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>162</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>152</v>
+      <c r="B23" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47408C42-C99A-42A7-A6CC-EE386CC9B63A}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="139.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5291,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6A7DF1-DF5D-4BDE-A8B9-32553A8BE824}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5304,7 +5729,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -5324,7 +5749,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
@@ -5332,7 +5757,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -5340,7 +5765,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="62" x14ac:dyDescent="0.35">
@@ -5348,7 +5773,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5356,7 +5781,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5364,42 +5789,48 @@
         <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
@@ -5415,6 +5846,279 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D172D61-57A6-44E0-A78D-80D0E1F503ED}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C31D002-C68E-4CB9-BCD9-063BE65546FF}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5428,7 +6132,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B1" s="6"/>
     </row>
@@ -5443,242 +6147,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D172D61-57A6-44E0-A78D-80D0E1F503ED}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C31D002-C68E-4CB9-BCD9-063BE65546FF}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -5686,7 +6160,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -5694,68 +6168,68 @@
         <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="62" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
